--- a/src/main/excelFiles/VIM-Incidents-Status - Copy.xlsx
+++ b/src/main/excelFiles/VIM-Incidents-Status - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0056apw\Downloads\Programming\ExcelMigration\src\main\excelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemens.sharepoint.com/teams/SHERPAX-I2P-VIMKeyUsers-Incidents/Shared Documents/Incidents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A11FA53-03AC-49A8-8927-5904F4D6A22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17208" documentId="8_{5A0D6B0C-AFF9-432A-BFA2-7E23FE142286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4608DB3-D15A-4422-A126-5C6B5F0ABFB6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{179FF816-634D-4BC2-B5E8-454D8B6E62E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{179FF816-634D-4BC2-B5E8-454D8B6E62E1}"/>
   </bookViews>
   <sheets>
     <sheet name="VIM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Readsoft!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VIM!$A$1:$T$546</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VIM!$A$1:$T$564</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5324" uniqueCount="2094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5401" uniqueCount="2120">
   <si>
     <t>Control Date</t>
   </si>
@@ -8282,12 +8282,23 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Test in T4Q. TO be tested next week
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">17.12.25 BV: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Blocked due to T4U limitations
+Test in T4Q. TO be tested next week
 </t>
     </r>
     <r>
@@ -16467,6 +16478,27 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">17.12.25 BV: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ticket Reopened - Code adaptation didn't fix the issue
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Closed on 15.12
 02.12.25 BV:</t>
     </r>
@@ -17834,6 +17866,29 @@
     <t>Vendor bills on ISD registration not getting captured.</t>
   </si>
   <si>
+    <t>Forwarded</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">17.12.25 BV: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Not VIM related -  Assigned to Vertex Team
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -17971,6 +18026,29 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Closed on 16.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Payment block Z was removed by reported Doc. Nrs. as workaround. This topic was also added to the Backlog list for further discussion by Product Management as Nr. 202.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">02.12.25 BV: </t>
@@ -17981,6 +18059,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Under analysis
@@ -18226,6 +18305,26 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
+      <t>17.12.25 BV:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Blocked due to T4U limitations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">05.12.25 BV: </t>
     </r>
     <r>
@@ -18248,6 +18347,26 @@
     <t>To implement CI to VIM AP Workplace App issue</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">17.12.25 BV: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Blocked due to T4U limitations
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -18608,11 +18727,33 @@
     <t xml:space="preserve">Remove A block for documents 3311671054, 3211172248 </t>
   </si>
   <si>
-    <t>Closed on 12.12 - Taken ER role and removed A blocks in Manage Payment Blocks in Fiori App.
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Closed on 12.12 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Taken ER role and removed A blocks in Manage Payment Blocks in Fiori App.
 --
 1. There are 3 open documents on vendor account X3Z004ZV5F, internal clearing is not possible as the document 3311671054 is blocked with payment block A. 
 2. there are 2 open documents on vendor 1000198533, internal clearing is not possible as the document 3211172248 is blocked with payment block A.
 Is it possible to delete the A block?</t>
+    </r>
   </si>
   <si>
     <t>INC44310456</t>
@@ -18681,8 +18822,31 @@
     <t>NPO Credit notes not able to post</t>
   </si>
   <si>
-    <t>--
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Closed on 16.12 - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Resolved by caller
+--
 We are trying to post an NPO Credit note and system is not allowing us. Please see attachment for more details.</t>
+    </r>
   </si>
   <si>
     <t>INC44324208</t>
@@ -18760,9 +18924,32 @@
     <t>Payment of vendor 1000755049 invoice FAK07975718</t>
   </si>
   <si>
-    <t>--
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Closed on 12.12 -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP 29335 was moved to All Inbox Tab, approver should be able to see this DP now in his Approval App.
+--
 Invoiced is not paid and we cannot find the work flow.
 Invoice need to be released and approved, but we do not know where the WF is</t>
+    </r>
   </si>
   <si>
     <t>INC44328457</t>
@@ -18771,8 +18958,31 @@
     <t>DP 26179_close the process and remove R block</t>
   </si>
   <si>
-    <t>--
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Closed on 12.12 - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pbk was removed and status was changed.
+--
 DP 26179 was in workflow and an approval is not possible as you can see in the attachment, system says, limit is exceeded, which is not true. The PO matches with the invoice. Please close the process and remove the R block.</t>
+    </r>
   </si>
   <si>
     <t>INC44329030</t>
@@ -18901,9 +19111,32 @@
     <t>Missing in Exception app + no authorisation</t>
   </si>
   <si>
-    <t>Under analysis
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">16.12.25 BV: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Forwarded to AUT team
+Under analysis
 --
 GID Z0042RMS has issue in Exception app. See screenshot in attached email.</t>
+    </r>
   </si>
   <si>
     <t>INC44345852</t>
@@ -18912,9 +19145,181 @@
     <t xml:space="preserve">Approval cannot be started </t>
   </si>
   <si>
-    <t>Under analysis
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">16.12.25 BV: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Simon - Hello Albert, colleagues have confirmed that the blocks and potential WFs should be removed see attachment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">15.12.25: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Under analysis
 --
 Approval cannot be triggered the error starting approval WF still persists.  24978 24261 22832 22808 11342 11077 11075 11074 11073 Items checked with A. Galek, do not reduce the priority lower than 2</t>
+    </r>
+  </si>
+  <si>
+    <t>INC44345935</t>
+  </si>
+  <si>
+    <t>VIM_DP 16243 - close the process</t>
+  </si>
+  <si>
+    <t>Closed on 16.12
+--
+Please close the process for DP 16243. Document was cancelled with DP 34414 and posted again with DP 33275.</t>
+  </si>
+  <si>
+    <t>INC44345961</t>
+  </si>
+  <si>
+    <t>Customs invoices approval did not start, even though the Approvers are set in the SATtable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Under analysis. Related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">INC43607409 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--
+Approvers have been assigned for the Customs approval and set in SAT, but the approval is not being started. </t>
+    </r>
+  </si>
+  <si>
+    <t>INC44346255</t>
+  </si>
+  <si>
+    <t>Please remove payment blocks, items cannot be paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--
+Please remove the payment blocks where is needed  for the other items, only update the VIM status </t>
+  </si>
+  <si>
+    <t>INC44351758</t>
+  </si>
+  <si>
+    <t>PDF Invoices don't appear in VIM Documents</t>
+  </si>
+  <si>
+    <t>--
+Please provide details about the nature of your issue.
+PDF invoices don't appear in VIM Documents. No image is annexed. Please see prints attached.</t>
+  </si>
+  <si>
+    <t>INC44352220</t>
+  </si>
+  <si>
+    <t>Document is with error in Analytics but I can't see it in Workplace</t>
+  </si>
+  <si>
+    <t>--
+Please provide details about the nature of your issue.
+We have a VIM Doc with an issue (29028) "Error starting the Blocking workflow for at least one item", but I cannot see this document in Workplace (either in "all items" or "all completed") in order to understand what to do to fix the error.
+1) Why I cannot see the document in workplace?
+2) How to fix the error?
+Many thanks in advance</t>
+  </si>
+  <si>
+    <t>INC44352828</t>
+  </si>
+  <si>
+    <t>Helici, Lucica</t>
+  </si>
+  <si>
+    <t>PDF not available for invoice to be approved</t>
+  </si>
+  <si>
+    <t>--
+I can't see the invoice that I need to approve. Please see attached screen shot. Furthermore, I don't receive a notification e-mail that there is an invoice waiting for approval in my personal tasks.</t>
+  </si>
+  <si>
+    <t>INC44354118</t>
+  </si>
+  <si>
+    <t>Add one supplier into VIM VAUD table</t>
+  </si>
+  <si>
+    <t>--
+Please add supplier 1007798201	Giken Precision Engineering (S)
+ into VIM VAUD table to prevent autoposting. Thanks.</t>
+  </si>
+  <si>
+    <t>INC44355232</t>
+  </si>
+  <si>
+    <t>VIM_close process and remove R block</t>
+  </si>
+  <si>
+    <t>--
+Please close the process for DPs 16615, 15131 and remove R block.
+Both documents were credited, approval not possible because of technical issue.</t>
   </si>
   <si>
     <t>OSS #</t>
@@ -19191,7 +19596,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="69">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19681,6 +20086,16 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -19943,7 +20358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -20715,7 +21130,13 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21141,39 +21562,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BB5121-B8FF-4194-B253-4C4D7825D4AB}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T556"/>
+  <dimension ref="A1:T564"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C556" sqref="C556"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G259" sqref="G259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="39" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="39" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" style="200" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="200" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" style="39" customWidth="1"/>
-    <col min="10" max="10" width="44.1796875" style="49" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="200" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="200" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="44.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="39" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="39" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="7.81640625" style="52" customWidth="1"/>
-    <col min="17" max="17" width="7.453125" style="39" customWidth="1"/>
-    <col min="18" max="18" width="98.1796875" style="54" customWidth="1"/>
-    <col min="19" max="19" width="8.54296875" style="39" customWidth="1"/>
-    <col min="20" max="20" width="7.7265625" style="39" customWidth="1"/>
-    <col min="21" max="16384" width="10.81640625" style="1"/>
+    <col min="15" max="15" width="10.42578125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="52" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="39" customWidth="1"/>
+    <col min="18" max="18" width="98.140625" style="54" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="39" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="39" customWidth="1"/>
+    <col min="21" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -21235,7 +21656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="26.1" hidden="1">
       <c r="A2" s="40"/>
       <c r="B2" s="60" t="s">
         <v>20</v>
@@ -21273,7 +21694,7 @@
       <c r="S2" s="44"/>
       <c r="T2" s="44"/>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="249" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="249" hidden="1" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="65" t="s">
         <v>26</v>
@@ -21319,7 +21740,7 @@
       </c>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:20" s="2" customFormat="1" ht="123" hidden="1" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="65" t="s">
         <v>34</v>
@@ -21365,7 +21786,7 @@
       </c>
       <c r="T4" s="44"/>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:20" s="2" customFormat="1" ht="123" hidden="1" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="70" t="s">
         <v>41</v>
@@ -21411,7 +21832,7 @@
       </c>
       <c r="T5" s="44"/>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="2" customFormat="1" ht="123" hidden="1" customHeight="1">
       <c r="A6" s="181"/>
       <c r="B6" s="164"/>
       <c r="C6" s="41">
@@ -21451,7 +21872,7 @@
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="391.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="391.5" hidden="1">
       <c r="A7" s="1"/>
       <c r="B7" s="76" t="s">
         <v>53</v>
@@ -21495,7 +21916,7 @@
       </c>
       <c r="T7" s="44"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="409.5" hidden="1">
       <c r="A8" s="1"/>
       <c r="B8" s="65"/>
       <c r="C8" s="65">
@@ -21537,7 +21958,7 @@
       </c>
       <c r="T8" s="44"/>
     </row>
-    <row r="9" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:20" ht="409.5" hidden="1">
       <c r="A9" s="55"/>
       <c r="B9" s="65" t="s">
         <v>64</v>
@@ -21583,7 +22004,7 @@
       </c>
       <c r="T9" s="44"/>
     </row>
-    <row r="10" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:20" ht="409.5" hidden="1">
       <c r="A10" s="55"/>
       <c r="B10" s="65" t="s">
         <v>71</v>
@@ -21631,7 +22052,7 @@
       </c>
       <c r="T10" s="44"/>
     </row>
-    <row r="11" spans="1:20" ht="95.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:20" ht="95.45" hidden="1" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65">
@@ -21667,7 +22088,7 @@
       </c>
       <c r="T11" s="44"/>
     </row>
-    <row r="12" spans="1:20" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:20" ht="103.5" hidden="1" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="65"/>
       <c r="C12" s="65">
@@ -21707,7 +22128,7 @@
       </c>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="187.9" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:20" ht="187.9" hidden="1" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="65"/>
       <c r="C13" s="65">
@@ -21749,7 +22170,7 @@
       </c>
       <c r="T13" s="44"/>
     </row>
-    <row r="14" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A14" s="1"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65">
@@ -21791,7 +22212,7 @@
       </c>
       <c r="T14" s="44"/>
     </row>
-    <row r="15" spans="1:20" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:20" ht="112.5" hidden="1" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="65"/>
       <c r="C15" s="81">
@@ -21833,7 +22254,7 @@
       </c>
       <c r="T15" s="44"/>
     </row>
-    <row r="16" spans="1:20" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:20" ht="112.5" hidden="1" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="65"/>
       <c r="C16" s="81">
@@ -21877,7 +22298,7 @@
       </c>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:20" ht="57.95" hidden="1">
       <c r="A17" s="1"/>
       <c r="B17" s="65"/>
       <c r="C17" s="140">
@@ -21915,7 +22336,7 @@
       </c>
       <c r="T17" s="44"/>
     </row>
-    <row r="18" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:20" ht="101.45" hidden="1">
       <c r="A18" s="1"/>
       <c r="B18" s="65"/>
       <c r="C18" s="65">
@@ -21955,7 +22376,7 @@
       </c>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="1:20" ht="41.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:20" ht="41.45" hidden="1" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="65"/>
       <c r="C19" s="65">
@@ -21995,7 +22416,7 @@
       </c>
       <c r="T19" s="44"/>
     </row>
-    <row r="20" spans="1:20" ht="12.65" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:20" ht="12.6" hidden="1" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65">
@@ -22035,7 +22456,7 @@
       </c>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="214.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:20" ht="214.5" hidden="1" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="65"/>
       <c r="C21" s="65">
@@ -22077,7 +22498,7 @@
       </c>
       <c r="T21" s="44"/>
     </row>
-    <row r="22" spans="1:20" ht="246.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:20" ht="246.75" hidden="1" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="65"/>
       <c r="C22" s="82">
@@ -22119,7 +22540,7 @@
       </c>
       <c r="T22" s="44"/>
     </row>
-    <row r="23" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:20" ht="29.1" hidden="1">
       <c r="A23" s="1"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65">
@@ -22159,7 +22580,7 @@
       </c>
       <c r="T23" s="44"/>
     </row>
-    <row r="24" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:20" ht="101.45" hidden="1">
       <c r="A24" s="1"/>
       <c r="B24" s="65"/>
       <c r="C24" s="65">
@@ -22199,7 +22620,7 @@
       </c>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="267.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:20" ht="267.75" hidden="1" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="63"/>
       <c r="C25" s="83">
@@ -22243,7 +22664,7 @@
       </c>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:20" ht="43.5" hidden="1">
       <c r="A26" s="1"/>
       <c r="B26" s="70"/>
       <c r="C26" s="70">
@@ -22285,7 +22706,7 @@
       </c>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="409.5" hidden="1">
       <c r="A27" s="183"/>
       <c r="B27" s="166" t="s">
         <v>123</v>
@@ -22335,7 +22756,7 @@
       </c>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:20" ht="29.1" hidden="1">
       <c r="A28" s="1"/>
       <c r="B28" s="85"/>
       <c r="C28" s="85">
@@ -22377,7 +22798,7 @@
       </c>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" ht="319" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="318.95" hidden="1">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>132</v>
@@ -22427,7 +22848,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="290" hidden="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:20" ht="290.10000000000002" hidden="1">
       <c r="A30" s="55"/>
       <c r="B30" s="76" t="s">
         <v>138</v>
@@ -22475,7 +22896,7 @@
       </c>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:20" ht="57.95" hidden="1">
       <c r="A31" s="1"/>
       <c r="B31" s="63"/>
       <c r="C31" s="63">
@@ -22517,7 +22938,7 @@
       </c>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" ht="391.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:20" ht="391.5" hidden="1">
       <c r="A32" s="55"/>
       <c r="B32" s="63" t="s">
         <v>146</v>
@@ -22563,7 +22984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="174" hidden="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:20" ht="174" hidden="1">
       <c r="A33" s="55"/>
       <c r="B33" s="89"/>
       <c r="C33" s="61">
@@ -22609,7 +23030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:20" ht="43.5" hidden="1">
       <c r="A34" s="1"/>
       <c r="B34" s="63"/>
       <c r="C34" s="63">
@@ -22651,7 +23072,7 @@
       </c>
       <c r="T34" s="44"/>
     </row>
-    <row r="35" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:20" ht="57.95" hidden="1">
       <c r="A35" s="1"/>
       <c r="B35" s="63"/>
       <c r="C35" s="63">
@@ -22693,7 +23114,7 @@
       </c>
       <c r="T35" s="44"/>
     </row>
-    <row r="36" spans="1:20" ht="26" hidden="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:20" ht="26.1" hidden="1">
       <c r="A36" s="1"/>
       <c r="B36" s="63"/>
       <c r="C36" s="63">
@@ -22733,7 +23154,7 @@
       </c>
       <c r="T36" s="44"/>
     </row>
-    <row r="37" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:20" ht="29.1" hidden="1">
       <c r="A37" s="1"/>
       <c r="B37" s="63"/>
       <c r="C37" s="63">
@@ -22773,7 +23194,7 @@
       </c>
       <c r="T37" s="44"/>
     </row>
-    <row r="38" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:20" ht="43.5" hidden="1">
       <c r="A38" s="1"/>
       <c r="B38" s="63"/>
       <c r="C38" s="63">
@@ -22817,7 +23238,7 @@
       </c>
       <c r="T38" s="44"/>
     </row>
-    <row r="39" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:20" ht="116.1" hidden="1">
       <c r="A39" s="55"/>
       <c r="B39" s="63" t="s">
         <v>170</v>
@@ -22863,7 +23284,7 @@
       </c>
       <c r="T39" s="44"/>
     </row>
-    <row r="40" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:20" ht="29.1" hidden="1">
       <c r="A40" s="1"/>
       <c r="B40" s="63"/>
       <c r="C40" s="63">
@@ -22901,7 +23322,7 @@
       </c>
       <c r="T40" s="44"/>
     </row>
-    <row r="41" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:20" ht="43.5" hidden="1">
       <c r="A41" s="1"/>
       <c r="B41" s="63"/>
       <c r="C41" s="63">
@@ -22943,7 +23364,7 @@
       </c>
       <c r="T41" s="44"/>
     </row>
-    <row r="42" spans="1:20" ht="275.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:20" ht="275.45" hidden="1">
       <c r="A42" s="55"/>
       <c r="B42" s="63" t="s">
         <v>177</v>
@@ -22991,7 +23412,7 @@
       </c>
       <c r="T42" s="44"/>
     </row>
-    <row r="43" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:20" ht="29.1" hidden="1">
       <c r="A43" s="1"/>
       <c r="B43" s="63"/>
       <c r="C43" s="63">
@@ -23029,7 +23450,7 @@
       </c>
       <c r="T43" s="44"/>
     </row>
-    <row r="44" spans="1:20" ht="203" hidden="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:20" ht="203.1" hidden="1">
       <c r="A44" s="55"/>
       <c r="B44" s="63" t="s">
         <v>183</v>
@@ -23077,7 +23498,7 @@
       </c>
       <c r="T44" s="44"/>
     </row>
-    <row r="45" spans="1:20" ht="26" hidden="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:20" ht="26.1" hidden="1">
       <c r="A45" s="1"/>
       <c r="B45" s="74"/>
       <c r="C45" s="74">
@@ -23115,7 +23536,7 @@
       </c>
       <c r="T45" s="44"/>
     </row>
-    <row r="46" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A46" s="57"/>
       <c r="B46" s="61" t="s">
         <v>187</v>
@@ -23163,7 +23584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:20" ht="409.5" hidden="1">
       <c r="A47" s="57"/>
       <c r="B47" s="61" t="s">
         <v>192</v>
@@ -23213,7 +23634,7 @@
       </c>
       <c r="T47" s="44"/>
     </row>
-    <row r="48" spans="1:20" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:20" ht="160.5" hidden="1" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="76" t="s">
         <v>198</v>
@@ -23259,7 +23680,7 @@
       </c>
       <c r="T48" s="44"/>
     </row>
-    <row r="49" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:20" ht="87" hidden="1">
       <c r="A49" s="55"/>
       <c r="B49" s="74" t="s">
         <v>203</v>
@@ -23305,7 +23726,7 @@
       </c>
       <c r="T49" s="44"/>
     </row>
-    <row r="50" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" ht="409.5" hidden="1">
       <c r="A50" s="183"/>
       <c r="B50" s="235"/>
       <c r="C50" s="61">
@@ -23353,7 +23774,7 @@
       </c>
       <c r="T50" s="44"/>
     </row>
-    <row r="51" spans="1:20" ht="290" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" ht="290.10000000000002" hidden="1">
       <c r="A51" s="170"/>
       <c r="B51" s="61" t="s">
         <v>215</v>
@@ -23397,7 +23818,7 @@
       <c r="S51" s="44"/>
       <c r="T51" s="44"/>
     </row>
-    <row r="52" spans="1:20" ht="188.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:20" ht="188.45" hidden="1">
       <c r="A52" s="57"/>
       <c r="B52" s="63" t="s">
         <v>221</v>
@@ -23443,7 +23864,7 @@
       </c>
       <c r="T52" s="44"/>
     </row>
-    <row r="53" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:20" ht="130.5" hidden="1">
       <c r="A53" s="57"/>
       <c r="B53" s="78" t="s">
         <v>225</v>
@@ -23489,7 +23910,7 @@
       </c>
       <c r="T53" s="44"/>
     </row>
-    <row r="54" spans="1:20" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:20" ht="130.5" hidden="1" customHeight="1">
       <c r="A54" s="57"/>
       <c r="B54" s="65" t="s">
         <v>230</v>
@@ -23535,7 +23956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A55" s="57"/>
       <c r="B55" s="63" t="s">
         <v>235</v>
@@ -23583,7 +24004,7 @@
       </c>
       <c r="T55" s="44"/>
     </row>
-    <row r="56" spans="1:20" ht="141.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:20" ht="141.75" hidden="1" customHeight="1">
       <c r="A56" s="57"/>
       <c r="B56" s="63" t="s">
         <v>242</v>
@@ -23629,7 +24050,7 @@
       </c>
       <c r="T56" s="44"/>
     </row>
-    <row r="57" spans="1:20" ht="135.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:20" ht="135.75" hidden="1" customHeight="1">
       <c r="A57" s="57"/>
       <c r="B57" s="65"/>
       <c r="C57" s="65">
@@ -23667,7 +24088,7 @@
       <c r="S57" s="44"/>
       <c r="T57" s="44"/>
     </row>
-    <row r="58" spans="1:20" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:20" ht="100.5" hidden="1" customHeight="1">
       <c r="A58" s="57"/>
       <c r="B58" s="65"/>
       <c r="C58" s="65">
@@ -23705,7 +24126,7 @@
       <c r="S58" s="44"/>
       <c r="T58" s="44"/>
     </row>
-    <row r="59" spans="1:20" ht="219.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:20" ht="219.75" hidden="1" customHeight="1">
       <c r="A59" s="57"/>
       <c r="B59" s="63" t="s">
         <v>253</v>
@@ -23751,7 +24172,7 @@
       <c r="S59" s="44"/>
       <c r="T59" s="44"/>
     </row>
-    <row r="60" spans="1:20" s="2" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:20" s="2" customFormat="1" ht="174" hidden="1">
       <c r="A60" s="57"/>
       <c r="B60" s="65" t="s">
         <v>258</v>
@@ -23797,7 +24218,7 @@
       <c r="S60" s="44"/>
       <c r="T60" s="44"/>
     </row>
-    <row r="61" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:20" ht="409.5" hidden="1">
       <c r="A61" s="57"/>
       <c r="B61" s="96"/>
       <c r="C61" s="65">
@@ -23837,7 +24258,7 @@
       <c r="S61" s="44"/>
       <c r="T61" s="44"/>
     </row>
-    <row r="62" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:20" ht="101.45" hidden="1">
       <c r="A62" s="57"/>
       <c r="B62" s="65"/>
       <c r="C62" s="65">
@@ -23875,7 +24296,7 @@
       <c r="S62" s="44"/>
       <c r="T62" s="44"/>
     </row>
-    <row r="63" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:20" ht="409.5" hidden="1">
       <c r="A63" s="57"/>
       <c r="B63" s="65" t="s">
         <v>270</v>
@@ -23921,7 +24342,7 @@
       <c r="S63" s="44"/>
       <c r="T63" s="44"/>
     </row>
-    <row r="64" spans="1:20" ht="203" hidden="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:20" ht="203.1" hidden="1">
       <c r="A64" s="57"/>
       <c r="B64" s="65" t="s">
         <v>47</v>
@@ -23967,7 +24388,7 @@
       <c r="S64" s="44"/>
       <c r="T64" s="44"/>
     </row>
-    <row r="65" spans="1:20" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:20" ht="30.75" hidden="1" customHeight="1">
       <c r="A65" s="57"/>
       <c r="B65" s="65" t="s">
         <v>281</v>
@@ -24011,7 +24432,7 @@
       <c r="S65" s="44"/>
       <c r="T65" s="44"/>
     </row>
-    <row r="66" spans="1:20" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:20" ht="153" hidden="1" customHeight="1">
       <c r="A66" s="57"/>
       <c r="B66" s="65" t="s">
         <v>286</v>
@@ -24057,7 +24478,7 @@
       <c r="S66" s="44"/>
       <c r="T66" s="44"/>
     </row>
-    <row r="67" spans="1:20" ht="168" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:20" ht="168" hidden="1" customHeight="1">
       <c r="A67" s="57"/>
       <c r="B67" s="65" t="s">
         <v>292</v>
@@ -24103,7 +24524,7 @@
       <c r="S67" s="44"/>
       <c r="T67" s="44"/>
     </row>
-    <row r="68" spans="1:20" ht="141" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:20" ht="141" hidden="1" customHeight="1">
       <c r="A68" s="57"/>
       <c r="B68" s="63" t="s">
         <v>297</v>
@@ -24149,7 +24570,7 @@
       <c r="S68" s="44"/>
       <c r="T68" s="44"/>
     </row>
-    <row r="69" spans="1:20" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:20" ht="129" hidden="1" customHeight="1">
       <c r="A69" s="57"/>
       <c r="B69" s="65" t="s">
         <v>301</v>
@@ -24193,7 +24614,7 @@
       <c r="S69" s="44"/>
       <c r="T69" s="44"/>
     </row>
-    <row r="70" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:20" ht="43.5" hidden="1">
       <c r="A70" s="57"/>
       <c r="B70" s="65" t="s">
         <v>47</v>
@@ -24229,7 +24650,7 @@
       <c r="S70" s="47"/>
       <c r="T70" s="47"/>
     </row>
-    <row r="71" spans="1:20" ht="159.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:20" ht="159.6" hidden="1">
       <c r="A71" s="57"/>
       <c r="B71" s="65" t="s">
         <v>308</v>
@@ -24273,7 +24694,7 @@
       <c r="S71" s="47"/>
       <c r="T71" s="47"/>
     </row>
-    <row r="72" spans="1:20" ht="235.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:20" ht="235.5" hidden="1" customHeight="1">
       <c r="A72" s="57"/>
       <c r="B72" s="65" t="s">
         <v>312</v>
@@ -24317,7 +24738,7 @@
       <c r="S72" s="44"/>
       <c r="T72" s="44"/>
     </row>
-    <row r="73" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:20" ht="409.5" hidden="1">
       <c r="A73" s="57"/>
       <c r="B73" s="65" t="s">
         <v>318</v>
@@ -24361,7 +24782,7 @@
       <c r="S73" s="47"/>
       <c r="T73" s="47"/>
     </row>
-    <row r="74" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:20" ht="409.5" hidden="1">
       <c r="A74" s="57"/>
       <c r="B74" s="65"/>
       <c r="C74" s="65">
@@ -24399,7 +24820,7 @@
       <c r="S74" s="44"/>
       <c r="T74" s="44"/>
     </row>
-    <row r="75" spans="1:20" ht="377" hidden="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:20" ht="377.1" hidden="1">
       <c r="A75" s="57"/>
       <c r="B75" s="65" t="s">
         <v>326</v>
@@ -24443,7 +24864,7 @@
       <c r="S75" s="47"/>
       <c r="T75" s="47"/>
     </row>
-    <row r="76" spans="1:20" ht="224.25" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:20" ht="224.25" hidden="1" customHeight="1">
       <c r="A76" s="57"/>
       <c r="B76" s="63" t="s">
         <v>331</v>
@@ -24485,7 +24906,7 @@
       <c r="S76" s="44"/>
       <c r="T76" s="44"/>
     </row>
-    <row r="77" spans="1:20" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:20" ht="81" hidden="1" customHeight="1">
       <c r="A77" s="57"/>
       <c r="B77" s="65"/>
       <c r="C77" s="65">
@@ -24523,7 +24944,7 @@
       <c r="S77" s="44"/>
       <c r="T77" s="44"/>
     </row>
-    <row r="78" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:20" ht="409.5" hidden="1">
       <c r="A78" s="57"/>
       <c r="B78" s="65" t="s">
         <v>340</v>
@@ -24565,7 +24986,7 @@
       <c r="S78" s="47"/>
       <c r="T78" s="47"/>
     </row>
-    <row r="79" spans="1:20" ht="159.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:20" ht="159.6" hidden="1">
       <c r="A79" s="57"/>
       <c r="B79" s="65" t="s">
         <v>344</v>
@@ -24609,7 +25030,7 @@
       <c r="S79" s="47"/>
       <c r="T79" s="47"/>
     </row>
-    <row r="80" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A80" s="57"/>
       <c r="B80" s="65" t="s">
         <v>348</v>
@@ -24653,7 +25074,7 @@
       <c r="S80" s="47"/>
       <c r="T80" s="47"/>
     </row>
-    <row r="81" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:20" ht="409.5" hidden="1">
       <c r="A81" s="57"/>
       <c r="B81" s="65" t="s">
         <v>352</v>
@@ -24697,7 +25118,7 @@
       <c r="S81" s="44"/>
       <c r="T81" s="44"/>
     </row>
-    <row r="82" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A82" s="57"/>
       <c r="B82" s="65" t="s">
         <v>356</v>
@@ -24739,7 +25160,7 @@
       <c r="S82" s="44"/>
       <c r="T82" s="44"/>
     </row>
-    <row r="83" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:20" ht="17.25" hidden="1" customHeight="1">
       <c r="A83" s="57"/>
       <c r="B83" s="65"/>
       <c r="C83" s="65">
@@ -24777,7 +25198,7 @@
       <c r="S83" s="44"/>
       <c r="T83" s="44"/>
     </row>
-    <row r="84" spans="1:20" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:20" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="A84" s="57"/>
       <c r="B84" s="65"/>
       <c r="C84" s="65">
@@ -24815,7 +25236,7 @@
       <c r="S84" s="44"/>
       <c r="T84" s="44"/>
     </row>
-    <row r="85" spans="1:20" ht="96.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:20" ht="96.75" hidden="1" customHeight="1">
       <c r="A85" s="57"/>
       <c r="B85" s="65" t="s">
         <v>366</v>
@@ -24859,7 +25280,7 @@
       <c r="S85" s="44"/>
       <c r="T85" s="44"/>
     </row>
-    <row r="86" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:20" ht="116.1" hidden="1">
       <c r="A86" s="57"/>
       <c r="B86" s="65" t="s">
         <v>371</v>
@@ -24903,7 +25324,7 @@
       <c r="S86" s="44"/>
       <c r="T86" s="44"/>
     </row>
-    <row r="87" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:20" ht="409.5" hidden="1">
       <c r="A87" s="57"/>
       <c r="B87" s="65" t="s">
         <v>376</v>
@@ -24947,7 +25368,7 @@
       <c r="S87" s="44"/>
       <c r="T87" s="44"/>
     </row>
-    <row r="88" spans="1:20" s="12" customFormat="1" ht="246.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:20" s="12" customFormat="1" ht="246.6" hidden="1">
       <c r="A88" s="57"/>
       <c r="B88" s="65" t="s">
         <v>382</v>
@@ -24991,7 +25412,7 @@
       <c r="S88" s="44"/>
       <c r="T88" s="44"/>
     </row>
-    <row r="89" spans="1:20" ht="290" hidden="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:20" ht="290.10000000000002" hidden="1">
       <c r="A89" s="57"/>
       <c r="B89" s="65" t="s">
         <v>387</v>
@@ -25033,7 +25454,7 @@
       <c r="S89" s="44"/>
       <c r="T89" s="44"/>
     </row>
-    <row r="90" spans="1:20" ht="171.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:20" ht="171.75" hidden="1" customHeight="1">
       <c r="A90" s="57"/>
       <c r="B90" s="65"/>
       <c r="C90" s="65">
@@ -25073,7 +25494,7 @@
       <c r="S90" s="44"/>
       <c r="T90" s="44"/>
     </row>
-    <row r="91" spans="1:20" ht="26" hidden="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:20" ht="26.1" hidden="1">
       <c r="A91" s="57"/>
       <c r="B91" s="65" t="s">
         <v>395</v>
@@ -25115,7 +25536,7 @@
       <c r="S91" s="44"/>
       <c r="T91" s="44"/>
     </row>
-    <row r="92" spans="1:20" ht="26" hidden="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:20" ht="26.1" hidden="1">
       <c r="A92" s="57"/>
       <c r="B92" s="65" t="s">
         <v>398</v>
@@ -25151,7 +25572,7 @@
       <c r="S92" s="44"/>
       <c r="T92" s="44"/>
     </row>
-    <row r="93" spans="1:20" ht="142.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:20" ht="142.5" hidden="1" customHeight="1">
       <c r="A93" s="57"/>
       <c r="B93" s="65" t="s">
         <v>401</v>
@@ -25191,7 +25612,7 @@
       <c r="S93" s="44"/>
       <c r="T93" s="44"/>
     </row>
-    <row r="94" spans="1:20" ht="245.25" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:20" ht="245.25" hidden="1" customHeight="1">
       <c r="A94" s="57"/>
       <c r="B94" s="65"/>
       <c r="C94" s="65">
@@ -25235,7 +25656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:20" ht="1.5" hidden="1" customHeight="1">
       <c r="A95" s="57"/>
       <c r="B95" s="65"/>
       <c r="C95" s="65">
@@ -25279,7 +25700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:20" ht="29.1" hidden="1">
       <c r="A96" s="57"/>
       <c r="B96" s="65"/>
       <c r="C96" s="65">
@@ -25311,7 +25732,7 @@
       <c r="S96" s="44"/>
       <c r="T96" s="44"/>
     </row>
-    <row r="97" spans="1:20" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:20" ht="91.5" hidden="1" customHeight="1">
       <c r="A97" s="57"/>
       <c r="B97" s="70"/>
       <c r="C97" s="70">
@@ -25349,7 +25770,7 @@
       <c r="S97" s="44"/>
       <c r="T97" s="44"/>
     </row>
-    <row r="98" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:20" ht="130.5" hidden="1">
       <c r="A98" s="57"/>
       <c r="B98" s="63" t="s">
         <v>416</v>
@@ -25391,7 +25812,7 @@
       <c r="S98" s="44"/>
       <c r="T98" s="44"/>
     </row>
-    <row r="99" spans="1:20" ht="142.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:20" ht="142.5" hidden="1" customHeight="1">
       <c r="A99" s="57"/>
       <c r="B99" s="104"/>
       <c r="C99" s="104">
@@ -25429,7 +25850,7 @@
       <c r="S99" s="44"/>
       <c r="T99" s="44"/>
     </row>
-    <row r="100" spans="1:20" ht="261" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" ht="261" hidden="1">
       <c r="A100" s="57"/>
       <c r="B100" s="61" t="s">
         <v>424</v>
@@ -25475,7 +25896,7 @@
       <c r="S100" s="44"/>
       <c r="T100" s="44"/>
     </row>
-    <row r="101" spans="1:20" ht="151.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:20" ht="151.5" hidden="1" customHeight="1">
       <c r="A101" s="57"/>
       <c r="B101" s="76"/>
       <c r="C101" s="76">
@@ -25515,7 +25936,7 @@
       <c r="S101" s="47"/>
       <c r="T101" s="47"/>
     </row>
-    <row r="102" spans="1:20" ht="203" hidden="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:20" ht="203.1" hidden="1">
       <c r="A102" s="57"/>
       <c r="B102" s="65"/>
       <c r="C102" s="65">
@@ -25557,7 +25978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:20" ht="43.5" hidden="1">
       <c r="A103" s="57"/>
       <c r="B103" s="65"/>
       <c r="C103" s="109">
@@ -25595,7 +26016,7 @@
       <c r="S103" s="44"/>
       <c r="T103" s="44"/>
     </row>
-    <row r="104" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A104" s="57"/>
       <c r="B104" s="65"/>
       <c r="C104" s="65">
@@ -25635,7 +26056,7 @@
       <c r="S104" s="44"/>
       <c r="T104" s="44"/>
     </row>
-    <row r="105" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:20" ht="43.5" hidden="1">
       <c r="A105" s="57"/>
       <c r="B105" s="65"/>
       <c r="C105" s="65">
@@ -25675,7 +26096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:20" ht="87" hidden="1">
       <c r="A106" s="57"/>
       <c r="B106" s="65"/>
       <c r="C106" s="65">
@@ -25717,7 +26138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:20" ht="43.5" hidden="1">
       <c r="A107" s="57"/>
       <c r="B107" s="65"/>
       <c r="C107" s="81">
@@ -25757,7 +26178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:20" ht="29.1" hidden="1">
       <c r="A108" s="57"/>
       <c r="B108" s="65" t="s">
         <v>451</v>
@@ -25799,7 +26220,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="348" hidden="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:20" ht="348" hidden="1">
       <c r="A109" s="57"/>
       <c r="B109" s="65"/>
       <c r="C109" s="65" t="s">
@@ -25835,7 +26256,7 @@
       <c r="S109" s="44"/>
       <c r="T109" s="44"/>
     </row>
-    <row r="110" spans="1:20" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:20" ht="61.5" hidden="1" customHeight="1">
       <c r="A110" s="57"/>
       <c r="B110" s="65"/>
       <c r="C110" s="65" t="s">
@@ -25875,7 +26296,7 @@
       <c r="S110" s="44"/>
       <c r="T110" s="44"/>
     </row>
-    <row r="111" spans="1:20" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:20" ht="48.75" hidden="1" customHeight="1">
       <c r="A111" s="57"/>
       <c r="B111" s="65"/>
       <c r="C111" s="65"/>
@@ -25907,7 +26328,7 @@
       <c r="S111" s="44"/>
       <c r="T111" s="44"/>
     </row>
-    <row r="112" spans="1:20" ht="60.65" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:20" ht="60.6" hidden="1" customHeight="1">
       <c r="A112" s="57"/>
       <c r="B112" s="65" t="s">
         <v>466</v>
@@ -25949,7 +26370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="174" hidden="1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:20" ht="174" hidden="1">
       <c r="A113" s="57"/>
       <c r="B113" s="65"/>
       <c r="C113" s="65">
@@ -25991,7 +26412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:20" ht="46.5" hidden="1" customHeight="1">
       <c r="A114" s="57"/>
       <c r="B114" s="65"/>
       <c r="C114" s="111">
@@ -26029,7 +26450,7 @@
       <c r="S114" s="44"/>
       <c r="T114" s="44"/>
     </row>
-    <row r="115" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:20" ht="29.1" hidden="1">
       <c r="A115" s="57"/>
       <c r="B115" s="65"/>
       <c r="C115" s="65">
@@ -26067,7 +26488,7 @@
       <c r="S115" s="44"/>
       <c r="T115" s="44"/>
     </row>
-    <row r="116" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:20" ht="29.1" hidden="1">
       <c r="A116" s="57"/>
       <c r="B116" s="65"/>
       <c r="C116" s="81">
@@ -26105,7 +26526,7 @@
       <c r="S116" s="44"/>
       <c r="T116" s="44"/>
     </row>
-    <row r="117" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:20" ht="43.5" hidden="1">
       <c r="A117" s="57"/>
       <c r="B117" s="65"/>
       <c r="C117" s="65">
@@ -26145,7 +26566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:20" ht="116.1" hidden="1">
       <c r="A118" s="57"/>
       <c r="B118" s="65"/>
       <c r="C118" s="81">
@@ -26187,7 +26608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:20" ht="31.5" hidden="1" customHeight="1">
       <c r="A119" s="57"/>
       <c r="B119" s="63"/>
       <c r="C119" s="61">
@@ -26231,7 +26652,7 @@
       </c>
       <c r="T119" s="44"/>
     </row>
-    <row r="120" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:20" ht="43.5" hidden="1">
       <c r="A120" s="57"/>
       <c r="B120" s="65"/>
       <c r="C120" s="140">
@@ -26273,7 +26694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="26" hidden="1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:20" ht="26.1" hidden="1">
       <c r="A121" s="57"/>
       <c r="B121" s="63"/>
       <c r="C121" s="63">
@@ -26311,7 +26732,7 @@
       <c r="S121" s="44"/>
       <c r="T121" s="44"/>
     </row>
-    <row r="122" spans="1:20" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:20" ht="74.25" hidden="1" customHeight="1">
       <c r="A122" s="57"/>
       <c r="B122" s="63"/>
       <c r="C122" s="61">
@@ -26355,7 +26776,7 @@
       </c>
       <c r="T122" s="44"/>
     </row>
-    <row r="123" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A123" s="57"/>
       <c r="B123" s="63"/>
       <c r="C123" s="63">
@@ -26395,7 +26816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:20" ht="87" hidden="1">
       <c r="A124" s="57"/>
       <c r="B124" s="65"/>
       <c r="C124" s="65">
@@ -26435,7 +26856,7 @@
       <c r="S124" s="44"/>
       <c r="T124" s="44"/>
     </row>
-    <row r="125" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:20" ht="101.45" hidden="1">
       <c r="A125" s="57"/>
       <c r="B125" s="65"/>
       <c r="C125" s="65">
@@ -26479,7 +26900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:20" ht="78" hidden="1" customHeight="1">
       <c r="A126" s="57"/>
       <c r="B126" s="63"/>
       <c r="C126" s="63">
@@ -26517,7 +26938,7 @@
       <c r="S126" s="44"/>
       <c r="T126" s="44"/>
     </row>
-    <row r="127" spans="1:20" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:20" ht="75" hidden="1" customHeight="1">
       <c r="A127" s="57"/>
       <c r="B127" s="63"/>
       <c r="C127" s="81">
@@ -26557,7 +26978,7 @@
       <c r="S127" s="44"/>
       <c r="T127" s="44"/>
     </row>
-    <row r="128" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A128" s="57"/>
       <c r="B128" s="65"/>
       <c r="C128" s="65">
@@ -26597,7 +27018,7 @@
       <c r="S128" s="44"/>
       <c r="T128" s="44"/>
     </row>
-    <row r="129" spans="1:20" ht="26" hidden="1" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:20" ht="26.1" hidden="1">
       <c r="A129" s="57"/>
       <c r="B129" s="63"/>
       <c r="C129" s="63">
@@ -26637,7 +27058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="108.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:20" ht="108.75" hidden="1" customHeight="1">
       <c r="A130" s="57"/>
       <c r="B130" s="63"/>
       <c r="C130" s="61">
@@ -26683,7 +27104,7 @@
       </c>
       <c r="T130" s="44"/>
     </row>
-    <row r="131" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:20" ht="87" hidden="1">
       <c r="A131" s="57"/>
       <c r="B131" s="65"/>
       <c r="C131" s="61">
@@ -26725,7 +27146,7 @@
       <c r="S131" s="44"/>
       <c r="T131" s="44"/>
     </row>
-    <row r="132" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:20" ht="29.1" hidden="1">
       <c r="A132" s="57"/>
       <c r="B132" s="63"/>
       <c r="C132" s="63">
@@ -26763,7 +27184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="40" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" s="40" customFormat="1" ht="44.25" hidden="1" customHeight="1">
       <c r="A133" s="57"/>
       <c r="B133" s="63"/>
       <c r="C133" s="63">
@@ -26801,7 +27222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:20" s="40" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" s="40" customFormat="1" ht="26.1" hidden="1">
       <c r="A134" s="57"/>
       <c r="B134" s="63"/>
       <c r="C134" s="63">
@@ -26837,7 +27258,7 @@
       <c r="S134" s="44"/>
       <c r="T134" s="44"/>
     </row>
-    <row r="135" spans="1:20" s="40" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" s="40" customFormat="1" ht="30.75" hidden="1" customHeight="1">
       <c r="A135" s="57"/>
       <c r="B135" s="63"/>
       <c r="C135" s="63">
@@ -26873,7 +27294,7 @@
       <c r="S135" s="44"/>
       <c r="T135" s="44"/>
     </row>
-    <row r="136" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:20" ht="43.5" hidden="1">
       <c r="A136" s="57"/>
       <c r="B136" s="65" t="s">
         <v>528</v>
@@ -26917,7 +27338,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:20" ht="29.1" hidden="1">
       <c r="A137" s="169"/>
       <c r="B137" s="74"/>
       <c r="C137" s="74">
@@ -26955,7 +27376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="266.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" ht="266.25" hidden="1" customHeight="1">
       <c r="A138" s="234">
         <v>45992</v>
       </c>
@@ -27003,7 +27424,7 @@
       <c r="S138" s="44"/>
       <c r="T138" s="44"/>
     </row>
-    <row r="139" spans="1:20" ht="377" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" ht="377.1" hidden="1">
       <c r="A139" s="234">
         <v>45992</v>
       </c>
@@ -27051,7 +27472,7 @@
       </c>
       <c r="T139" s="44"/>
     </row>
-    <row r="140" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A140" s="170"/>
       <c r="B140" s="63" t="s">
         <v>541</v>
@@ -27095,7 +27516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:20" ht="57.95" hidden="1">
       <c r="A141" s="57"/>
       <c r="B141" s="104"/>
       <c r="C141" s="104">
@@ -27137,7 +27558,7 @@
       <c r="S141" s="44"/>
       <c r="T141" s="44"/>
     </row>
-    <row r="142" spans="1:20" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:20" ht="48.75" hidden="1" customHeight="1">
       <c r="A142" s="57"/>
       <c r="B142" s="70" t="s">
         <v>550</v>
@@ -27181,7 +27602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:20" ht="29.1" hidden="1">
       <c r="A143" s="57"/>
       <c r="B143" s="70" t="s">
         <v>554</v>
@@ -27225,7 +27646,7 @@
       <c r="S143" s="44"/>
       <c r="T143" s="44"/>
     </row>
-    <row r="144" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:20" ht="43.5" hidden="1">
       <c r="A144" s="57"/>
       <c r="B144" s="74" t="s">
         <v>558</v>
@@ -27273,7 +27694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:20" ht="29.1" hidden="1">
       <c r="A145" s="57"/>
       <c r="B145" s="116" t="s">
         <v>563</v>
@@ -27313,7 +27734,7 @@
       <c r="S145" s="44"/>
       <c r="T145" s="44"/>
     </row>
-    <row r="146" spans="1:20" ht="26" hidden="1" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:20" ht="26.1" hidden="1">
       <c r="A146" s="57"/>
       <c r="B146" s="116" t="s">
         <v>566</v>
@@ -27353,7 +27774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:20" ht="101.45" hidden="1">
       <c r="A147" s="57"/>
       <c r="B147" s="63" t="s">
         <v>568</v>
@@ -27395,7 +27816,7 @@
       <c r="S147" s="44"/>
       <c r="T147" s="44"/>
     </row>
-    <row r="148" spans="1:20" ht="107.25" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:20" ht="107.25" hidden="1" customHeight="1">
       <c r="A148" s="57"/>
       <c r="B148" s="63" t="s">
         <v>572</v>
@@ -27441,7 +27862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="203" hidden="1" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:20" ht="203.1" hidden="1">
       <c r="A149" s="57"/>
       <c r="B149" s="63"/>
       <c r="C149" s="61" t="s">
@@ -27483,7 +27904,7 @@
       </c>
       <c r="T149" s="44"/>
     </row>
-    <row r="150" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A150" s="57"/>
       <c r="B150" s="63" t="s">
         <v>580</v>
@@ -27531,7 +27952,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A151" s="57"/>
       <c r="B151" s="61">
         <v>8500014387</v>
@@ -27575,7 +27996,7 @@
       <c r="S151" s="44"/>
       <c r="T151" s="44"/>
     </row>
-    <row r="152" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:20" ht="130.5" hidden="1">
       <c r="A152" s="57"/>
       <c r="B152" s="85"/>
       <c r="C152" s="119" t="s">
@@ -27619,7 +28040,7 @@
       </c>
       <c r="T152" s="44"/>
     </row>
-    <row r="153" spans="1:20" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:20" ht="48.75" hidden="1" customHeight="1">
       <c r="A153" s="57"/>
       <c r="B153" s="63" t="s">
         <v>591</v>
@@ -27665,7 +28086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:20" ht="101.45" hidden="1">
       <c r="A154" s="57"/>
       <c r="B154" s="74"/>
       <c r="C154" s="115">
@@ -27709,7 +28130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="141.75" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:20" ht="141.75" hidden="1" customHeight="1">
       <c r="A155" s="57"/>
       <c r="B155" s="63" t="s">
         <v>597</v>
@@ -27753,7 +28174,7 @@
       </c>
       <c r="T155" s="44"/>
     </row>
-    <row r="156" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:20" ht="101.45" hidden="1">
       <c r="A156" s="57"/>
       <c r="B156" s="61" t="s">
         <v>603</v>
@@ -27797,7 +28218,7 @@
       <c r="S156" s="44"/>
       <c r="T156" s="44"/>
     </row>
-    <row r="157" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:20" ht="57.95" hidden="1">
       <c r="A157" s="57"/>
       <c r="B157" s="63" t="s">
         <v>606</v>
@@ -27839,7 +28260,7 @@
       <c r="S157" s="44"/>
       <c r="T157" s="44"/>
     </row>
-    <row r="158" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:20" ht="43.5" hidden="1">
       <c r="A158" s="57"/>
       <c r="B158" s="85"/>
       <c r="C158" s="119">
@@ -27879,7 +28300,7 @@
       <c r="S158" s="44"/>
       <c r="T158" s="44"/>
     </row>
-    <row r="159" spans="1:20" ht="203" hidden="1" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:20" ht="203.1" hidden="1">
       <c r="A159" s="57"/>
       <c r="B159" s="61" t="s">
         <v>613</v>
@@ -27925,7 +28346,7 @@
       <c r="S159" s="44"/>
       <c r="T159" s="44"/>
     </row>
-    <row r="160" spans="1:20" ht="188.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:20" ht="188.45" hidden="1">
       <c r="A160" s="169"/>
       <c r="B160" s="61" t="s">
         <v>619</v>
@@ -27969,8 +28390,8 @@
       </c>
       <c r="T160" s="44"/>
     </row>
-    <row r="161" spans="1:20" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="225">
+    <row r="161" spans="1:20" ht="246.6" hidden="1">
+      <c r="A161" s="234">
         <v>46003</v>
       </c>
       <c r="B161" s="61" t="s">
@@ -28019,7 +28440,7 @@
       <c r="S161" s="44"/>
       <c r="T161" s="44"/>
     </row>
-    <row r="162" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:20" ht="29.1" hidden="1">
       <c r="A162" s="170"/>
       <c r="B162" s="63" t="s">
         <v>629</v>
@@ -28055,7 +28476,7 @@
       <c r="S162" s="44"/>
       <c r="T162" s="44"/>
     </row>
-    <row r="163" spans="1:20" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:20" ht="34.5" hidden="1" customHeight="1">
       <c r="A163" s="57"/>
       <c r="B163" s="63" t="s">
         <v>631</v>
@@ -28091,7 +28512,7 @@
       <c r="S163" s="44"/>
       <c r="T163" s="44"/>
     </row>
-    <row r="164" spans="1:20" ht="232" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" ht="231.95" hidden="1">
       <c r="A164" s="169"/>
       <c r="B164" s="61" t="s">
         <v>635</v>
@@ -28135,7 +28556,7 @@
       <c r="S164" s="44"/>
       <c r="T164" s="44"/>
     </row>
-    <row r="165" spans="1:20" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" ht="188.45" hidden="1">
       <c r="A165" s="183"/>
       <c r="B165" s="168" t="s">
         <v>640</v>
@@ -28179,7 +28600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" ht="188.45" hidden="1">
       <c r="A166" s="170"/>
       <c r="B166" s="61" t="s">
         <v>646</v>
@@ -28223,7 +28644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:20" ht="115.5" hidden="1" customHeight="1">
       <c r="A167" s="57"/>
       <c r="B167" s="61" t="s">
         <v>650</v>
@@ -28265,7 +28686,7 @@
       </c>
       <c r="T167" s="44"/>
     </row>
-    <row r="168" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:20" ht="57.95" hidden="1">
       <c r="A168" s="57"/>
       <c r="B168" s="74" t="s">
         <v>654</v>
@@ -28303,7 +28724,7 @@
       <c r="S168" s="44"/>
       <c r="T168" s="44"/>
     </row>
-    <row r="169" spans="1:20" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:20" ht="78" hidden="1" customHeight="1">
       <c r="A169" s="57"/>
       <c r="B169" s="63" t="s">
         <v>657</v>
@@ -28347,7 +28768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="104.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" ht="104.25" hidden="1" customHeight="1">
       <c r="A170" s="57"/>
       <c r="B170" s="93" t="s">
         <v>661</v>
@@ -28389,7 +28810,7 @@
       <c r="S170" s="44"/>
       <c r="T170" s="44"/>
     </row>
-    <row r="171" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:20" ht="29.1" hidden="1">
       <c r="A171" s="57"/>
       <c r="B171" s="78" t="s">
         <v>665</v>
@@ -28427,7 +28848,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:20" ht="57.95" hidden="1">
       <c r="A172" s="169"/>
       <c r="B172" s="115" t="s">
         <v>667</v>
@@ -28467,7 +28888,7 @@
       <c r="S172" s="44"/>
       <c r="T172" s="44"/>
     </row>
-    <row r="173" spans="1:20" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" ht="217.5" hidden="1">
       <c r="A173" s="183"/>
       <c r="B173" s="178" t="s">
         <v>670</v>
@@ -28517,7 +28938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:20" ht="116.1" hidden="1">
       <c r="A174" s="170"/>
       <c r="B174" s="78" t="s">
         <v>674</v>
@@ -28555,7 +28976,7 @@
       <c r="S174" s="44"/>
       <c r="T174" s="44"/>
     </row>
-    <row r="175" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:20" ht="87" hidden="1">
       <c r="A175" s="57"/>
       <c r="B175" s="63" t="s">
         <v>677</v>
@@ -28595,7 +29016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" ht="29.1" hidden="1">
       <c r="A176" s="57"/>
       <c r="B176" s="74"/>
       <c r="C176" s="115">
@@ -28633,7 +29054,7 @@
       <c r="S176" s="44"/>
       <c r="T176" s="44"/>
     </row>
-    <row r="177" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A177" s="57"/>
       <c r="B177" s="74" t="s">
         <v>681</v>
@@ -28673,7 +29094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="94.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" ht="94.5" hidden="1" customHeight="1">
       <c r="A178" s="57"/>
       <c r="B178" s="74" t="s">
         <v>686</v>
@@ -28715,7 +29136,7 @@
       </c>
       <c r="T178" s="44"/>
     </row>
-    <row r="179" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" ht="29.1" hidden="1">
       <c r="A179" s="57"/>
       <c r="B179" s="74" t="s">
         <v>690</v>
@@ -28757,7 +29178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" ht="159.6" hidden="1">
       <c r="A180" s="57"/>
       <c r="B180" s="115" t="s">
         <v>693</v>
@@ -28805,7 +29226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" ht="57.95" hidden="1">
       <c r="A181" s="57"/>
       <c r="B181" s="74" t="s">
         <v>697</v>
@@ -28849,7 +29270,7 @@
       </c>
       <c r="T181" s="44"/>
     </row>
-    <row r="182" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:20" ht="29.1" hidden="1">
       <c r="A182" s="57"/>
       <c r="B182" s="61" t="s">
         <v>701</v>
@@ -28895,7 +29316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" ht="29.1" hidden="1">
       <c r="A183" s="57"/>
       <c r="B183" s="115" t="s">
         <v>705</v>
@@ -28941,7 +29362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" ht="57.95" hidden="1">
       <c r="A184" s="57"/>
       <c r="B184" s="61" t="s">
         <v>709</v>
@@ -28987,7 +29408,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" ht="29.1" hidden="1">
       <c r="A185" s="57"/>
       <c r="B185" s="61" t="s">
         <v>713</v>
@@ -29029,7 +29450,7 @@
       <c r="S185" s="44"/>
       <c r="T185" s="44"/>
     </row>
-    <row r="186" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" ht="43.5" hidden="1">
       <c r="A186" s="57"/>
       <c r="B186" s="61" t="s">
         <v>717</v>
@@ -29073,7 +29494,7 @@
       <c r="S186" s="44"/>
       <c r="T186" s="44"/>
     </row>
-    <row r="187" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" ht="29.1" hidden="1">
       <c r="A187" s="57"/>
       <c r="B187" s="61" t="s">
         <v>722</v>
@@ -29117,7 +29538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A188" s="57"/>
       <c r="B188" s="61" t="s">
         <v>725</v>
@@ -29163,7 +29584,7 @@
       </c>
       <c r="T188" s="44"/>
     </row>
-    <row r="189" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" ht="43.5" hidden="1">
       <c r="A189" s="57"/>
       <c r="B189" s="61" t="s">
         <v>730</v>
@@ -29201,7 +29622,7 @@
       <c r="S189" s="44"/>
       <c r="T189" s="44"/>
     </row>
-    <row r="190" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" ht="29.1" hidden="1">
       <c r="A190" s="57"/>
       <c r="B190" s="61" t="s">
         <v>735</v>
@@ -29241,7 +29662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A191" s="57"/>
       <c r="B191" s="61" t="s">
         <v>738</v>
@@ -29283,7 +29704,7 @@
       <c r="S191" s="44"/>
       <c r="T191" s="44"/>
     </row>
-    <row r="192" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" ht="43.5" hidden="1">
       <c r="A192" s="57"/>
       <c r="B192" s="61" t="s">
         <v>742</v>
@@ -29325,7 +29746,7 @@
       <c r="S192" s="44"/>
       <c r="T192" s="44"/>
     </row>
-    <row r="193" spans="1:20" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" ht="217.5" hidden="1">
       <c r="A193" s="57"/>
       <c r="B193" s="61" t="s">
         <v>748</v>
@@ -29369,7 +29790,7 @@
       <c r="S193" s="44"/>
       <c r="T193" s="44"/>
     </row>
-    <row r="194" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" ht="29.1" hidden="1">
       <c r="A194" s="57"/>
       <c r="B194" s="61" t="s">
         <v>753</v>
@@ -29411,7 +29832,7 @@
       <c r="S194" s="44"/>
       <c r="T194" s="44"/>
     </row>
-    <row r="195" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" ht="130.5" hidden="1">
       <c r="A195" s="57"/>
       <c r="B195" s="61" t="s">
         <v>758</v>
@@ -29457,7 +29878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" ht="29.1" hidden="1">
       <c r="A196" s="169"/>
       <c r="B196" s="61" t="s">
         <v>763</v>
@@ -29499,7 +29920,7 @@
       </c>
       <c r="T196" s="44"/>
     </row>
-    <row r="197" spans="1:20" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" ht="246.6" hidden="1">
       <c r="A197" s="225">
         <v>45980</v>
       </c>
@@ -29549,7 +29970,7 @@
       <c r="S197" s="44"/>
       <c r="T197" s="44"/>
     </row>
-    <row r="198" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A198" s="170"/>
       <c r="B198" s="61" t="s">
         <v>774</v>
@@ -29593,7 +30014,7 @@
       <c r="S198" s="44"/>
       <c r="T198" s="44"/>
     </row>
-    <row r="199" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A199" s="57"/>
       <c r="B199" s="61" t="s">
         <v>776</v>
@@ -29635,7 +30056,7 @@
       <c r="S199" s="44"/>
       <c r="T199" s="44"/>
     </row>
-    <row r="200" spans="1:20" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" ht="43.5" hidden="1" customHeight="1">
       <c r="A200" s="57"/>
       <c r="B200" s="61" t="s">
         <v>780</v>
@@ -29677,7 +30098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" ht="109.5" hidden="1" customHeight="1">
       <c r="A201" s="57"/>
       <c r="B201" s="134" t="s">
         <v>786</v>
@@ -29719,7 +30140,7 @@
       <c r="S201" s="132"/>
       <c r="T201" s="132"/>
     </row>
-    <row r="202" spans="1:20" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" ht="78" hidden="1" customHeight="1">
       <c r="A202" s="57"/>
       <c r="B202" s="115" t="s">
         <v>789</v>
@@ -29763,7 +30184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A203" s="57"/>
       <c r="B203" s="134" t="s">
         <v>794</v>
@@ -29807,7 +30228,7 @@
       </c>
       <c r="T203" s="131"/>
     </row>
-    <row r="204" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A204" s="131"/>
       <c r="B204" s="134" t="s">
         <v>798</v>
@@ -29851,7 +30272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" ht="81.75" hidden="1" customHeight="1">
       <c r="A205" s="57"/>
       <c r="B205" s="115" t="s">
         <v>803</v>
@@ -29899,7 +30320,7 @@
       </c>
       <c r="T205" s="131"/>
     </row>
-    <row r="206" spans="1:20" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:20" ht="159.6" hidden="1">
       <c r="A206" s="57"/>
       <c r="B206" s="61" t="s">
         <v>807</v>
@@ -29945,7 +30366,7 @@
       </c>
       <c r="T206" s="44"/>
     </row>
-    <row r="207" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:20" ht="43.5" hidden="1">
       <c r="A207" s="136"/>
       <c r="B207" s="138" t="s">
         <v>810</v>
@@ -29989,7 +30410,7 @@
       <c r="S207" s="136"/>
       <c r="T207" s="136"/>
     </row>
-    <row r="208" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" ht="29.1" hidden="1">
       <c r="A208" s="131"/>
       <c r="B208" s="134" t="s">
         <v>814</v>
@@ -30031,7 +30452,7 @@
       <c r="S208" s="131"/>
       <c r="T208" s="131"/>
     </row>
-    <row r="209" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" ht="87" hidden="1">
       <c r="A209" s="169"/>
       <c r="B209" s="133" t="s">
         <v>818</v>
@@ -30073,7 +30494,7 @@
       <c r="S209" s="44"/>
       <c r="T209" s="44"/>
     </row>
-    <row r="210" spans="1:20" ht="232" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" ht="231.95" hidden="1">
       <c r="A210" s="183"/>
       <c r="B210" s="168" t="s">
         <v>821</v>
@@ -30115,7 +30536,7 @@
       <c r="S210" s="44"/>
       <c r="T210" s="44"/>
     </row>
-    <row r="211" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" ht="87" hidden="1">
       <c r="A211" s="136"/>
       <c r="B211" s="134" t="s">
         <v>827</v>
@@ -30161,7 +30582,7 @@
       </c>
       <c r="T211" s="44"/>
     </row>
-    <row r="212" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" ht="57.95" hidden="1">
       <c r="A212" s="169"/>
       <c r="B212" s="134" t="s">
         <v>832</v>
@@ -30203,7 +30624,7 @@
       <c r="S212" s="131"/>
       <c r="T212" s="131"/>
     </row>
-    <row r="213" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" ht="409.5" hidden="1">
       <c r="A213" s="181"/>
       <c r="B213" s="168" t="s">
         <v>836</v>
@@ -30245,7 +30666,7 @@
       <c r="S213" s="44"/>
       <c r="T213" s="44"/>
     </row>
-    <row r="214" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" ht="87" hidden="1">
       <c r="A214" s="171"/>
       <c r="B214" s="133" t="s">
         <v>840</v>
@@ -30289,7 +30710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" ht="203.1" hidden="1">
       <c r="A215" s="183"/>
       <c r="B215" s="168" t="s">
         <v>845</v>
@@ -30335,7 +30756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:20" ht="29.1" hidden="1">
       <c r="A216" s="136"/>
       <c r="B216" s="133" t="s">
         <v>850</v>
@@ -30375,7 +30796,7 @@
       <c r="S216" s="44"/>
       <c r="T216" s="44"/>
     </row>
-    <row r="217" spans="1:20" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" ht="14.45" hidden="1">
       <c r="A217" s="44"/>
       <c r="B217" s="93" t="s">
         <v>854</v>
@@ -30417,7 +30838,7 @@
       <c r="S217" s="44"/>
       <c r="T217" s="44"/>
     </row>
-    <row r="218" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" ht="57.95" hidden="1">
       <c r="A218" s="131"/>
       <c r="B218" s="133" t="s">
         <v>857</v>
@@ -30461,7 +30882,7 @@
       <c r="S218" s="44"/>
       <c r="T218" s="44"/>
     </row>
-    <row r="219" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" ht="101.45" hidden="1">
       <c r="A219" s="207"/>
       <c r="B219" s="174" t="s">
         <v>861</v>
@@ -30507,7 +30928,7 @@
       <c r="S219" s="131"/>
       <c r="T219" s="131"/>
     </row>
-    <row r="220" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:20" ht="130.5" hidden="1">
       <c r="A220" s="183"/>
       <c r="B220" s="133" t="s">
         <v>865</v>
@@ -30553,7 +30974,7 @@
       <c r="S220" s="135"/>
       <c r="T220" s="44"/>
     </row>
-    <row r="221" spans="1:20" ht="98.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" ht="98.25" hidden="1" customHeight="1">
       <c r="A221" s="183"/>
       <c r="B221" s="133" t="s">
         <v>868</v>
@@ -30599,7 +31020,7 @@
       <c r="S221" s="135"/>
       <c r="T221" s="44"/>
     </row>
-    <row r="222" spans="1:20" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" ht="217.5" hidden="1">
       <c r="A222" s="183"/>
       <c r="B222" s="173" t="s">
         <v>872</v>
@@ -30647,7 +31068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" ht="174" hidden="1">
       <c r="A223" s="183"/>
       <c r="B223" s="61" t="s">
         <v>876</v>
@@ -30693,7 +31114,7 @@
       <c r="S223" s="172"/>
       <c r="T223" s="136"/>
     </row>
-    <row r="224" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A224" s="136"/>
       <c r="B224" s="138" t="s">
         <v>881</v>
@@ -30735,7 +31156,7 @@
       <c r="S224" s="135"/>
       <c r="T224" s="44"/>
     </row>
-    <row r="225" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" ht="29.1" hidden="1">
       <c r="A225" s="136"/>
       <c r="B225" s="138" t="s">
         <v>885</v>
@@ -30777,7 +31198,7 @@
       <c r="S225" s="135"/>
       <c r="T225" s="44"/>
     </row>
-    <row r="226" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" ht="29.1" hidden="1">
       <c r="A226" s="131"/>
       <c r="B226" s="134" t="s">
         <v>888</v>
@@ -30821,7 +31242,7 @@
       <c r="S226" s="135"/>
       <c r="T226" s="44"/>
     </row>
-    <row r="227" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" ht="29.1" hidden="1">
       <c r="A227" s="131"/>
       <c r="B227" s="133" t="s">
         <v>891</v>
@@ -30863,7 +31284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A228" s="225">
         <v>45967</v>
       </c>
@@ -30909,7 +31330,7 @@
       <c r="S228" s="135"/>
       <c r="T228" s="44"/>
     </row>
-    <row r="229" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A229" s="183"/>
       <c r="B229" s="168" t="s">
         <v>900</v>
@@ -30955,7 +31376,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" ht="93" hidden="1" customHeight="1">
       <c r="A230" s="170"/>
       <c r="B230" s="133" t="s">
         <v>903</v>
@@ -30997,7 +31418,7 @@
       <c r="S230" s="135"/>
       <c r="T230" s="44"/>
     </row>
-    <row r="231" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" ht="29.1" hidden="1">
       <c r="A231" s="169"/>
       <c r="B231" s="133" t="s">
         <v>907</v>
@@ -31041,7 +31462,7 @@
       </c>
       <c r="T231" s="44"/>
     </row>
-    <row r="232" spans="1:20" ht="232" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" ht="231.95" hidden="1">
       <c r="A232" s="181"/>
       <c r="B232" s="168" t="s">
         <v>912</v>
@@ -31085,7 +31506,7 @@
       <c r="S232" s="135"/>
       <c r="T232" s="44"/>
     </row>
-    <row r="233" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" ht="29.1" hidden="1">
       <c r="A233" s="136"/>
       <c r="B233" s="133" t="s">
         <v>917</v>
@@ -31129,7 +31550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" ht="29.1" hidden="1">
       <c r="A234" s="44"/>
       <c r="B234" s="133" t="s">
         <v>920</v>
@@ -31171,7 +31592,7 @@
       <c r="S234" s="135"/>
       <c r="T234" s="44"/>
     </row>
-    <row r="235" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:20" ht="29.1" hidden="1">
       <c r="A235" s="57"/>
       <c r="B235" s="133" t="s">
         <v>924</v>
@@ -31213,7 +31634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:20" ht="130.5" hidden="1">
       <c r="A236" s="57"/>
       <c r="B236" s="133" t="s">
         <v>927</v>
@@ -31257,7 +31678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" ht="43.5" hidden="1">
       <c r="A237" s="57"/>
       <c r="B237" s="133" t="s">
         <v>930</v>
@@ -31299,7 +31720,7 @@
       <c r="S237" s="135"/>
       <c r="T237" s="44"/>
     </row>
-    <row r="238" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:20" ht="43.5" hidden="1">
       <c r="A238" s="169"/>
       <c r="B238" s="133" t="s">
         <v>934</v>
@@ -31339,7 +31760,7 @@
       <c r="S238" s="135"/>
       <c r="T238" s="44"/>
     </row>
-    <row r="239" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:20" ht="116.1" hidden="1">
       <c r="A239" s="181"/>
       <c r="B239" s="168" t="s">
         <v>938</v>
@@ -31385,7 +31806,7 @@
       <c r="S239" s="135"/>
       <c r="T239" s="44"/>
     </row>
-    <row r="240" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" ht="57.95" hidden="1">
       <c r="A240" s="225">
         <v>45967</v>
       </c>
@@ -31429,7 +31850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:20" ht="57.95" hidden="1">
       <c r="A241" s="181"/>
       <c r="B241" s="168" t="s">
         <v>947</v>
@@ -31469,7 +31890,7 @@
       <c r="S241" s="135"/>
       <c r="T241" s="44"/>
     </row>
-    <row r="242" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:20" ht="43.5" hidden="1">
       <c r="A242" s="170"/>
       <c r="B242" s="133" t="s">
         <v>951</v>
@@ -31507,7 +31928,7 @@
       <c r="S242" s="135"/>
       <c r="T242" s="44"/>
     </row>
-    <row r="243" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" ht="57.95" hidden="1">
       <c r="A243" s="57"/>
       <c r="B243" s="133" t="s">
         <v>955</v>
@@ -31545,7 +31966,7 @@
       <c r="S243" s="135"/>
       <c r="T243" s="44"/>
     </row>
-    <row r="244" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" ht="29.1" hidden="1">
       <c r="A244" s="169"/>
       <c r="B244" s="133" t="s">
         <v>960</v>
@@ -31585,7 +32006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" ht="14.45" hidden="1">
       <c r="A245" s="181"/>
       <c r="B245" s="168" t="s">
         <v>963</v>
@@ -31627,7 +32048,7 @@
       <c r="S245" s="135"/>
       <c r="T245" s="44"/>
     </row>
-    <row r="246" spans="1:20" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:20" ht="35.25" hidden="1" customHeight="1">
       <c r="A246" s="181"/>
       <c r="B246" s="168" t="s">
         <v>966</v>
@@ -31665,7 +32086,7 @@
       <c r="S246" s="135"/>
       <c r="T246" s="44"/>
     </row>
-    <row r="247" spans="1:20" ht="232" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" ht="231.95" hidden="1">
       <c r="A247" s="181"/>
       <c r="B247" s="167" t="s">
         <v>971</v>
@@ -31711,7 +32132,7 @@
       <c r="S247" s="135"/>
       <c r="T247" s="44"/>
     </row>
-    <row r="248" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:20" ht="57.95" hidden="1">
       <c r="A248" s="181"/>
       <c r="B248" s="168" t="s">
         <v>976</v>
@@ -31753,7 +32174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A249" s="183"/>
       <c r="B249" s="168" t="s">
         <v>981</v>
@@ -31795,7 +32216,7 @@
       <c r="S249" s="135"/>
       <c r="T249" s="44"/>
     </row>
-    <row r="250" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" ht="43.5" hidden="1">
       <c r="A250" s="185"/>
       <c r="B250" s="174" t="s">
         <v>985</v>
@@ -31839,7 +32260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" ht="203.1" hidden="1">
       <c r="A251" s="225">
         <v>45980</v>
       </c>
@@ -31883,7 +32304,7 @@
       <c r="S251" s="44"/>
       <c r="T251" s="44"/>
     </row>
-    <row r="252" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:20" ht="43.5" hidden="1">
       <c r="A252" s="57"/>
       <c r="B252" s="133" t="s">
         <v>993</v>
@@ -31925,7 +32346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" ht="150" hidden="1" customHeight="1">
       <c r="A253" s="185"/>
       <c r="B253" s="174" t="s">
         <v>996</v>
@@ -31967,7 +32388,7 @@
       </c>
       <c r="T253" s="44"/>
     </row>
-    <row r="254" spans="1:20" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" ht="217.5" hidden="1">
       <c r="A254" s="183"/>
       <c r="B254" s="173" t="s">
         <v>1000</v>
@@ -32013,7 +32434,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" ht="116.1" hidden="1">
       <c r="A255" s="183"/>
       <c r="B255" s="133" t="s">
         <v>1004</v>
@@ -32055,7 +32476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" ht="87" hidden="1">
       <c r="A256" s="187"/>
       <c r="B256" s="175" t="s">
         <v>1008</v>
@@ -32095,7 +32516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A257" s="181"/>
       <c r="B257" s="168" t="s">
         <v>1012</v>
@@ -32135,7 +32556,7 @@
       <c r="S257" s="135"/>
       <c r="T257" s="44"/>
     </row>
-    <row r="258" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:20" ht="130.5" hidden="1">
       <c r="A258" s="181"/>
       <c r="B258" s="168" t="s">
         <v>1015</v>
@@ -32177,7 +32598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A259" s="181"/>
       <c r="B259" s="168" t="s">
         <v>1019</v>
@@ -32221,7 +32642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:20" ht="110.25" hidden="1" customHeight="1">
       <c r="A260" s="225">
         <v>45966</v>
       </c>
@@ -32267,7 +32688,7 @@
       <c r="S260" s="135"/>
       <c r="T260" s="44"/>
     </row>
-    <row r="261" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" ht="29.1" hidden="1">
       <c r="A261" s="181"/>
       <c r="B261" s="168" t="s">
         <v>1026</v>
@@ -32305,7 +32726,7 @@
       <c r="S261" s="135"/>
       <c r="T261" s="44"/>
     </row>
-    <row r="262" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:20" ht="43.5" hidden="1">
       <c r="A262" s="181"/>
       <c r="B262" s="168" t="s">
         <v>1029</v>
@@ -32343,7 +32764,7 @@
       <c r="S262" s="135"/>
       <c r="T262" s="44"/>
     </row>
-    <row r="263" spans="1:20" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" ht="66" hidden="1" customHeight="1">
       <c r="A263" s="181"/>
       <c r="B263" s="168" t="s">
         <v>1032</v>
@@ -32381,7 +32802,7 @@
       <c r="S263" s="135"/>
       <c r="T263" s="44"/>
     </row>
-    <row r="264" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" ht="101.45" hidden="1">
       <c r="A264" s="181"/>
       <c r="B264" s="168" t="s">
         <v>1035</v>
@@ -32421,7 +32842,7 @@
       <c r="S264" s="135"/>
       <c r="T264" s="44"/>
     </row>
-    <row r="265" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" ht="43.5" hidden="1">
       <c r="A265" s="181"/>
       <c r="B265" s="168" t="s">
         <v>1038</v>
@@ -32459,7 +32880,7 @@
       <c r="S265" s="135"/>
       <c r="T265" s="44"/>
     </row>
-    <row r="266" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:20" ht="57.95" hidden="1">
       <c r="A266" s="181"/>
       <c r="B266" s="168" t="s">
         <v>1042</v>
@@ -32505,7 +32926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:20" ht="29.1" hidden="1">
       <c r="A267" s="181"/>
       <c r="B267" s="168" t="s">
         <v>1046</v>
@@ -32545,7 +32966,7 @@
       <c r="S267" s="135"/>
       <c r="T267" s="44"/>
     </row>
-    <row r="268" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:20" ht="43.5" hidden="1">
       <c r="A268" s="181"/>
       <c r="B268" s="168" t="s">
         <v>1050</v>
@@ -32585,7 +33006,7 @@
       <c r="S268" s="135"/>
       <c r="T268" s="44"/>
     </row>
-    <row r="269" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" ht="57.95" hidden="1">
       <c r="A269" s="181"/>
       <c r="B269" s="168" t="s">
         <v>1053</v>
@@ -32631,7 +33052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A270" s="183"/>
       <c r="B270" s="168" t="s">
         <v>1056</v>
@@ -32675,7 +33096,7 @@
       <c r="S270" s="135"/>
       <c r="T270" s="44"/>
     </row>
-    <row r="271" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" ht="43.5" hidden="1">
       <c r="A271" s="181"/>
       <c r="B271" s="168" t="s">
         <v>1061</v>
@@ -32719,7 +33140,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:20" ht="116.1" hidden="1">
       <c r="A272" s="181"/>
       <c r="B272" s="168" t="s">
         <v>1064</v>
@@ -32759,7 +33180,7 @@
       <c r="S272" s="135"/>
       <c r="T272" s="44"/>
     </row>
-    <row r="273" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" ht="57.95" hidden="1">
       <c r="A273" s="181"/>
       <c r="B273" s="168" t="s">
         <v>1068</v>
@@ -32803,7 +33224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" ht="29.1" hidden="1">
       <c r="A274" s="181"/>
       <c r="B274" s="168" t="s">
         <v>1071</v>
@@ -32849,7 +33270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:20" ht="57.95" hidden="1">
       <c r="A275" s="181"/>
       <c r="B275" s="168" t="s">
         <v>1075</v>
@@ -32891,7 +33312,7 @@
       <c r="S275" s="135"/>
       <c r="T275" s="44"/>
     </row>
-    <row r="276" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" ht="116.1" hidden="1">
       <c r="A276" s="181"/>
       <c r="B276" s="168" t="s">
         <v>1079</v>
@@ -32931,7 +33352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A277" s="181"/>
       <c r="B277" s="168" t="s">
         <v>1082</v>
@@ -32977,7 +33398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" ht="246.6" hidden="1">
       <c r="A278" s="183"/>
       <c r="B278" s="168" t="s">
         <v>1085</v>
@@ -33021,7 +33442,7 @@
       <c r="S278" s="135"/>
       <c r="T278" s="44"/>
     </row>
-    <row r="279" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" ht="87" hidden="1">
       <c r="A279" s="181"/>
       <c r="B279" s="168" t="s">
         <v>1089</v>
@@ -33069,7 +33490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" ht="57.95" hidden="1">
       <c r="A280" s="181"/>
       <c r="B280" s="174" t="s">
         <v>1092</v>
@@ -33115,7 +33536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A281" s="216">
         <v>45979</v>
       </c>
@@ -33163,7 +33584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A282" s="181"/>
       <c r="B282" s="175" t="s">
         <v>1099</v>
@@ -33205,7 +33626,7 @@
       <c r="S282" s="135"/>
       <c r="T282" s="44"/>
     </row>
-    <row r="283" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" ht="87" hidden="1">
       <c r="A283" s="181"/>
       <c r="B283" s="168" t="s">
         <v>1103</v>
@@ -33253,7 +33674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" ht="43.5" hidden="1">
       <c r="A284" s="181"/>
       <c r="B284" s="168" t="s">
         <v>1107</v>
@@ -33291,7 +33712,7 @@
       <c r="S284" s="135"/>
       <c r="T284" s="44"/>
     </row>
-    <row r="285" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" ht="57.95" hidden="1">
       <c r="A285" s="181"/>
       <c r="B285" s="168" t="s">
         <v>1110</v>
@@ -33335,7 +33756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:20" ht="217.5" hidden="1">
       <c r="A286" s="234">
         <v>45986</v>
       </c>
@@ -33385,7 +33806,7 @@
       </c>
       <c r="T286" s="44"/>
     </row>
-    <row r="287" spans="1:20" ht="90.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" ht="90.75" hidden="1" customHeight="1">
       <c r="A287" s="181"/>
       <c r="B287" s="168" t="s">
         <v>1117</v>
@@ -33429,7 +33850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="90.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" ht="90.75" hidden="1" customHeight="1">
       <c r="A288" s="181"/>
       <c r="B288" s="168" t="s">
         <v>1120</v>
@@ -33473,7 +33894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A289" s="181"/>
       <c r="B289" s="168" t="s">
         <v>1123</v>
@@ -33517,7 +33938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:20" ht="116.1" hidden="1">
       <c r="A290" s="183"/>
       <c r="B290" s="168" t="s">
         <v>1127</v>
@@ -33559,7 +33980,7 @@
       <c r="S290" s="135"/>
       <c r="T290" s="44"/>
     </row>
-    <row r="291" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A291" s="181"/>
       <c r="B291" s="168" t="s">
         <v>1131</v>
@@ -33607,7 +34028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:20" ht="101.45" hidden="1">
       <c r="A292" s="181"/>
       <c r="B292" s="168" t="s">
         <v>1134</v>
@@ -33655,7 +34076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A293" s="234">
         <v>45980</v>
       </c>
@@ -33705,7 +34126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A294" s="234">
         <v>45986</v>
       </c>
@@ -33755,7 +34176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A295" s="181"/>
       <c r="B295" s="168" t="s">
         <v>1144</v>
@@ -33799,7 +34220,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A296" s="183"/>
       <c r="B296" s="168" t="s">
         <v>1147</v>
@@ -33845,7 +34266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" ht="57.95" hidden="1">
       <c r="A297" s="181"/>
       <c r="B297" s="168" t="s">
         <v>1151</v>
@@ -33891,7 +34312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" ht="101.45" hidden="1">
       <c r="A298" s="181"/>
       <c r="B298" s="168" t="s">
         <v>1154</v>
@@ -33935,7 +34356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:20" ht="57.95" hidden="1">
       <c r="A299" s="181"/>
       <c r="B299" s="168" t="s">
         <v>1157</v>
@@ -33981,7 +34402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A300" s="181"/>
       <c r="B300" s="168" t="s">
         <v>1161</v>
@@ -34027,7 +34448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:20" ht="57.95" hidden="1">
       <c r="A301" s="181"/>
       <c r="B301" s="168" t="s">
         <v>1165</v>
@@ -34071,7 +34492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:20" ht="159.6" hidden="1">
       <c r="A302" s="183"/>
       <c r="B302" s="168" t="s">
         <v>1168</v>
@@ -34115,7 +34536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:20" ht="57.95" hidden="1">
       <c r="A303" s="183"/>
       <c r="B303" s="168" t="s">
         <v>1172</v>
@@ -34161,7 +34582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:20" ht="217.5" hidden="1">
       <c r="A304" s="234">
         <v>45986</v>
       </c>
@@ -34209,7 +34630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" ht="130.5" hidden="1">
       <c r="A305" s="181"/>
       <c r="B305" s="167" t="s">
         <v>1178</v>
@@ -34257,7 +34678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A306" s="183"/>
       <c r="B306" s="168" t="s">
         <v>1182</v>
@@ -34303,7 +34724,7 @@
       </c>
       <c r="T306" s="44"/>
     </row>
-    <row r="307" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" ht="101.45" hidden="1">
       <c r="A307" s="183"/>
       <c r="B307" s="168" t="s">
         <v>1185</v>
@@ -34345,7 +34766,7 @@
       <c r="S307" s="135"/>
       <c r="T307" s="44"/>
     </row>
-    <row r="308" spans="1:20" ht="319" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" ht="318.95" hidden="1">
       <c r="A308" s="183"/>
       <c r="B308" s="168" t="s">
         <v>1189</v>
@@ -34389,7 +34810,7 @@
       </c>
       <c r="T308" s="44"/>
     </row>
-    <row r="309" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" ht="101.45" hidden="1">
       <c r="A309" s="183"/>
       <c r="B309" s="168" t="s">
         <v>1193</v>
@@ -34429,7 +34850,7 @@
       <c r="S309" s="135"/>
       <c r="T309" s="44"/>
     </row>
-    <row r="310" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:20" ht="57.95" hidden="1">
       <c r="A310" s="183"/>
       <c r="B310" s="168" t="s">
         <v>1196</v>
@@ -34473,7 +34894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A311" s="183"/>
       <c r="B311" s="168" t="s">
         <v>1199</v>
@@ -34517,7 +34938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:20" ht="29.1" hidden="1">
       <c r="A312" s="183"/>
       <c r="B312" s="168" t="s">
         <v>1202</v>
@@ -34559,7 +34980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:20" ht="87" hidden="1">
       <c r="A313" s="183"/>
       <c r="B313" s="168" t="s">
         <v>1206</v>
@@ -34601,7 +35022,7 @@
       </c>
       <c r="T313" s="44"/>
     </row>
-    <row r="314" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:20" ht="29.1" hidden="1">
       <c r="A314" s="183"/>
       <c r="B314" s="168" t="s">
         <v>1209</v>
@@ -34641,7 +35062,7 @@
       <c r="S314" s="135"/>
       <c r="T314" s="44"/>
     </row>
-    <row r="315" spans="1:20" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:20" ht="27.75" hidden="1" customHeight="1">
       <c r="A315" s="183"/>
       <c r="B315" s="168" t="s">
         <v>1212</v>
@@ -34683,7 +35104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:20" ht="29.1" hidden="1">
       <c r="A316" s="183"/>
       <c r="B316" s="168" t="s">
         <v>1216</v>
@@ -34725,7 +35146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:20" ht="29.1" hidden="1">
       <c r="A317" s="183"/>
       <c r="B317" s="168" t="s">
         <v>1219</v>
@@ -34767,7 +35188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A318" s="183"/>
       <c r="B318" s="168" t="s">
         <v>1223</v>
@@ -34809,7 +35230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A319" s="183"/>
       <c r="B319" s="168" t="s">
         <v>1226</v>
@@ -34851,7 +35272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:20" ht="29.1" hidden="1">
       <c r="A320" s="183"/>
       <c r="B320" s="168" t="s">
         <v>1230</v>
@@ -34893,7 +35314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:20" ht="29.1" hidden="1">
       <c r="A321" s="183"/>
       <c r="B321" s="168" t="s">
         <v>1233</v>
@@ -34935,7 +35356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="168.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:20" ht="168.75" hidden="1" customHeight="1">
       <c r="A322" s="183"/>
       <c r="B322" s="168" t="s">
         <v>1237</v>
@@ -34977,7 +35398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:20" ht="116.1" hidden="1">
       <c r="A323" s="234">
         <v>45986</v>
       </c>
@@ -35025,7 +35446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:20" ht="14.45" hidden="1">
       <c r="A324" s="183"/>
       <c r="B324" s="168" t="s">
         <v>1244</v>
@@ -35067,7 +35488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:20" ht="43.5" hidden="1">
       <c r="A325" s="183"/>
       <c r="B325" s="168" t="s">
         <v>1247</v>
@@ -35107,7 +35528,7 @@
       <c r="S325" s="135"/>
       <c r="T325" s="44"/>
     </row>
-    <row r="326" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:20" ht="29.1" hidden="1">
       <c r="A326" s="183"/>
       <c r="B326" s="168" t="s">
         <v>1250</v>
@@ -35149,7 +35570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:20" ht="29.1" hidden="1">
       <c r="A327" s="183"/>
       <c r="B327" s="168" t="s">
         <v>1253</v>
@@ -35189,7 +35610,7 @@
       <c r="S327" s="135"/>
       <c r="T327" s="44"/>
     </row>
-    <row r="328" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:20" ht="87" hidden="1">
       <c r="A328" s="183"/>
       <c r="B328" s="168" t="s">
         <v>1255</v>
@@ -35233,7 +35654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:20" ht="29.1" hidden="1">
       <c r="A329" s="183"/>
       <c r="B329" s="168" t="s">
         <v>1258</v>
@@ -35275,7 +35696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:20" ht="130.5" hidden="1">
       <c r="A330" s="183"/>
       <c r="B330" s="168" t="s">
         <v>1260</v>
@@ -35321,7 +35742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:20" ht="116.1" hidden="1">
       <c r="A331" s="225">
         <v>45967</v>
       </c>
@@ -35367,7 +35788,7 @@
       <c r="S331" s="135"/>
       <c r="T331" s="44"/>
     </row>
-    <row r="332" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" ht="29.1" hidden="1">
       <c r="A332" s="183"/>
       <c r="B332" s="168" t="s">
         <v>1268</v>
@@ -35411,7 +35832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:20" ht="29.1" hidden="1">
       <c r="A333" s="183"/>
       <c r="B333" s="168" t="s">
         <v>1270</v>
@@ -35453,7 +35874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:20" ht="29.1" hidden="1">
       <c r="A334" s="183"/>
       <c r="B334" s="168" t="s">
         <v>1272</v>
@@ -35495,7 +35916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:20" ht="57.95" hidden="1">
       <c r="A335" s="183"/>
       <c r="B335" s="168" t="s">
         <v>1275</v>
@@ -35537,7 +35958,7 @@
       <c r="S335" s="135"/>
       <c r="T335" s="44"/>
     </row>
-    <row r="336" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A336" s="183"/>
       <c r="B336" s="168" t="s">
         <v>1279</v>
@@ -35581,7 +36002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="337" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:20" ht="43.5" hidden="1">
       <c r="A337" s="183"/>
       <c r="B337" s="168" t="s">
         <v>1282</v>
@@ -35621,7 +36042,7 @@
       <c r="S337" s="135"/>
       <c r="T337" s="44"/>
     </row>
-    <row r="338" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:20" ht="116.1" hidden="1">
       <c r="A338" s="183"/>
       <c r="B338" s="168" t="s">
         <v>1285</v>
@@ -35663,7 +36084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:20" ht="87" hidden="1">
       <c r="A339" s="183"/>
       <c r="B339" s="168" t="s">
         <v>1289</v>
@@ -35705,7 +36126,7 @@
       <c r="S339" s="135"/>
       <c r="T339" s="44"/>
     </row>
-    <row r="340" spans="1:20" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:20" ht="217.5" hidden="1">
       <c r="A340" s="225">
         <v>45996</v>
       </c>
@@ -35753,7 +36174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A341" s="183"/>
       <c r="B341" s="167" t="s">
         <v>1297</v>
@@ -35795,7 +36216,7 @@
       <c r="S341" s="135"/>
       <c r="T341" s="44"/>
     </row>
-    <row r="342" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:20" ht="57.95" hidden="1">
       <c r="A342" s="183"/>
       <c r="B342" s="168" t="s">
         <v>1301</v>
@@ -35839,7 +36260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:20" ht="57.95" hidden="1">
       <c r="A343" s="183"/>
       <c r="B343" s="168" t="s">
         <v>1304</v>
@@ -35879,7 +36300,7 @@
       <c r="S343" s="135"/>
       <c r="T343" s="44"/>
     </row>
-    <row r="344" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:20" ht="29.1" hidden="1">
       <c r="A344" s="183"/>
       <c r="B344" s="168" t="s">
         <v>1307</v>
@@ -35921,7 +36342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:20" ht="130.5" hidden="1">
       <c r="A345" s="225">
         <v>45981</v>
       </c>
@@ -35967,7 +36388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:20" ht="57.95" hidden="1">
       <c r="A346" s="234">
         <v>45986</v>
       </c>
@@ -36011,7 +36432,7 @@
       <c r="S346" s="135"/>
       <c r="T346" s="44"/>
     </row>
-    <row r="347" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:20" ht="116.1" hidden="1">
       <c r="A347" s="256">
         <v>45966</v>
       </c>
@@ -36055,7 +36476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="68.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:20" ht="68.45" hidden="1" customHeight="1">
       <c r="A348" s="225">
         <v>45960</v>
       </c>
@@ -36103,7 +36524,7 @@
       </c>
       <c r="T348" s="44"/>
     </row>
-    <row r="349" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A349" s="183"/>
       <c r="B349" s="168" t="s">
         <v>1327</v>
@@ -36147,7 +36568,7 @@
       <c r="S349" s="135"/>
       <c r="T349" s="44"/>
     </row>
-    <row r="350" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:20" ht="57.95" hidden="1">
       <c r="A350" s="183"/>
       <c r="B350" s="167" t="s">
         <v>1330</v>
@@ -36193,7 +36614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:20" ht="29.1" hidden="1">
       <c r="A351" s="225">
         <v>45961</v>
       </c>
@@ -36235,7 +36656,7 @@
       <c r="S351" s="135"/>
       <c r="T351" s="44"/>
     </row>
-    <row r="352" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:20" ht="101.45" hidden="1">
       <c r="A352" s="183"/>
       <c r="B352" s="167" t="s">
         <v>1336</v>
@@ -36275,7 +36696,7 @@
       <c r="S352" s="135"/>
       <c r="T352" s="44"/>
     </row>
-    <row r="353" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:20" ht="57.95" hidden="1">
       <c r="A353" s="183"/>
       <c r="B353" s="168" t="s">
         <v>1339</v>
@@ -36319,7 +36740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:20" ht="43.5" hidden="1" customHeight="1">
       <c r="A354" s="183"/>
       <c r="B354" s="168" t="s">
         <v>1342</v>
@@ -36361,7 +36782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:20" ht="101.45" hidden="1">
       <c r="A355" s="225">
         <v>45980</v>
       </c>
@@ -36405,7 +36826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:20" ht="57.95" hidden="1">
       <c r="A356" s="183"/>
       <c r="B356" s="168" t="s">
         <v>1349</v>
@@ -36447,7 +36868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:20" ht="116.1" hidden="1">
       <c r="A357" s="225">
         <v>45980</v>
       </c>
@@ -36495,7 +36916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:20" ht="57.95" hidden="1">
       <c r="A358" s="225">
         <v>45964</v>
       </c>
@@ -36541,7 +36962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A359" s="183"/>
       <c r="B359" s="167" t="s">
         <v>1359</v>
@@ -36585,8 +37006,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="225">
+    <row r="360" spans="1:20" ht="144.94999999999999" hidden="1">
+      <c r="A360" s="237">
         <v>46003</v>
       </c>
       <c r="B360" s="168" t="s">
@@ -36621,7 +37042,7 @@
       </c>
       <c r="P360" s="63"/>
       <c r="Q360" s="65"/>
-      <c r="R360" s="230" t="s">
+      <c r="R360" s="188" t="s">
         <v>1365</v>
       </c>
       <c r="S360" s="135"/>
@@ -36629,7 +37050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:20" ht="57.95" hidden="1">
       <c r="A361" s="225">
         <v>45958</v>
       </c>
@@ -36675,7 +37096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:20" ht="116.1" hidden="1">
       <c r="A362" s="183"/>
       <c r="B362" s="168" t="s">
         <v>1369</v>
@@ -36721,7 +37142,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A363" s="183"/>
       <c r="B363" s="168" t="s">
         <v>1372</v>
@@ -36761,7 +37182,7 @@
       <c r="S363" s="135"/>
       <c r="T363" s="44"/>
     </row>
-    <row r="364" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A364" s="183"/>
       <c r="B364" s="168" t="s">
         <v>1377</v>
@@ -36803,7 +37224,7 @@
       <c r="S364" s="135"/>
       <c r="T364" s="44"/>
     </row>
-    <row r="365" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:20" ht="116.1" hidden="1">
       <c r="A365" s="225">
         <v>45980</v>
       </c>
@@ -36849,7 +37270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A366" s="183"/>
       <c r="B366" s="168" t="s">
         <v>1383</v>
@@ -36893,7 +37314,7 @@
       </c>
       <c r="T366" s="44"/>
     </row>
-    <row r="367" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A367" s="225">
         <v>45973</v>
       </c>
@@ -36939,7 +37360,7 @@
       </c>
       <c r="T367" s="44"/>
     </row>
-    <row r="368" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:20" ht="87" hidden="1">
       <c r="A368" s="183"/>
       <c r="B368" s="168" t="s">
         <v>1389</v>
@@ -36983,7 +37404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:20" ht="43.5" hidden="1">
       <c r="A369" s="183"/>
       <c r="B369" s="168" t="s">
         <v>1393</v>
@@ -37027,7 +37448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:20" ht="101.45" hidden="1">
       <c r="A370" s="183"/>
       <c r="B370" s="168" t="s">
         <v>1397</v>
@@ -37067,7 +37488,7 @@
       <c r="S370" s="135"/>
       <c r="T370" s="44"/>
     </row>
-    <row r="371" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:20" ht="87" hidden="1">
       <c r="A371" s="225">
         <v>45964</v>
       </c>
@@ -37113,7 +37534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:20" ht="101.45" hidden="1">
       <c r="A372" s="234">
         <v>45986</v>
       </c>
@@ -37159,7 +37580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:20" ht="87" hidden="1">
       <c r="A373" s="183"/>
       <c r="B373" s="168" t="s">
         <v>1409</v>
@@ -37203,7 +37624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A374" s="183"/>
       <c r="B374" s="168" t="s">
         <v>1412</v>
@@ -37245,7 +37666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A375" s="183"/>
       <c r="B375" s="168" t="s">
         <v>1415</v>
@@ -37289,7 +37710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="376" spans="1:20" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:20" ht="49.5" hidden="1" customHeight="1">
       <c r="A376" s="183"/>
       <c r="B376" s="168" t="s">
         <v>1419</v>
@@ -37331,7 +37752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:20" ht="116.1" hidden="1">
       <c r="A377" s="256">
         <v>45966</v>
       </c>
@@ -37377,7 +37798,7 @@
       </c>
       <c r="T377" s="44"/>
     </row>
-    <row r="378" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:20" ht="101.45" hidden="1">
       <c r="A378" s="234">
         <v>45986</v>
       </c>
@@ -37425,7 +37846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="379" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:20" ht="130.5" hidden="1">
       <c r="A379" s="234">
         <v>45981</v>
       </c>
@@ -37467,7 +37888,7 @@
       <c r="S379" s="135"/>
       <c r="T379" s="44"/>
     </row>
-    <row r="380" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:20" ht="29.1" hidden="1">
       <c r="A380" s="183"/>
       <c r="B380" s="168" t="s">
         <v>1433</v>
@@ -37515,7 +37936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="381" spans="1:20" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:20" ht="47.25" hidden="1" customHeight="1">
       <c r="A381" s="183"/>
       <c r="B381" s="168" t="s">
         <v>1436</v>
@@ -37559,7 +37980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="382" spans="1:20" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:20" ht="76.5" hidden="1" customHeight="1">
       <c r="A382" s="183"/>
       <c r="B382" s="168" t="s">
         <v>1439</v>
@@ -37601,7 +38022,7 @@
       <c r="S382" s="135"/>
       <c r="T382" s="44"/>
     </row>
-    <row r="383" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:20" ht="29.1" hidden="1">
       <c r="A383" s="225">
         <v>45963</v>
       </c>
@@ -37649,7 +38070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="384" spans="1:20" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:20" ht="159.6" hidden="1">
       <c r="A384" s="225">
         <v>45992</v>
       </c>
@@ -37697,7 +38118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="385" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A385" s="225">
         <v>45981</v>
       </c>
@@ -37741,7 +38162,7 @@
       <c r="S385" s="135"/>
       <c r="T385" s="44"/>
     </row>
-    <row r="386" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:20" ht="44.25" hidden="1" customHeight="1">
       <c r="A386" s="225">
         <v>45975</v>
       </c>
@@ -37789,7 +38210,7 @@
       </c>
       <c r="T386" s="44"/>
     </row>
-    <row r="387" spans="1:20" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:20" ht="121.5" hidden="1" customHeight="1">
       <c r="A387" s="225">
         <v>45996</v>
       </c>
@@ -37833,7 +38254,7 @@
       </c>
       <c r="T387" s="44"/>
     </row>
-    <row r="388" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:20" ht="116.1" hidden="1">
       <c r="A388" s="225">
         <v>45992</v>
       </c>
@@ -37885,7 +38306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="389" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:20" ht="57.95" hidden="1">
       <c r="A389" s="225">
         <v>45963</v>
       </c>
@@ -37929,7 +38350,7 @@
       <c r="S389" s="135"/>
       <c r="T389" s="44"/>
     </row>
-    <row r="390" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:20" ht="29.1" hidden="1">
       <c r="A390" s="225">
         <v>45963</v>
       </c>
@@ -37975,7 +38396,7 @@
       <c r="S390" s="135"/>
       <c r="T390" s="44"/>
     </row>
-    <row r="391" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A391" s="225">
         <v>45971</v>
       </c>
@@ -38017,7 +38438,7 @@
       <c r="S391" s="135"/>
       <c r="T391" s="44"/>
     </row>
-    <row r="392" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:20" ht="29.1" hidden="1">
       <c r="A392" s="225">
         <v>45964</v>
       </c>
@@ -38067,7 +38488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="393" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:20" ht="29.1" hidden="1">
       <c r="A393" s="256">
         <v>45965</v>
       </c>
@@ -38111,7 +38532,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="394" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:20" ht="101.45" hidden="1">
       <c r="A394" s="225">
         <v>45966</v>
       </c>
@@ -38155,7 +38576,7 @@
       <c r="S394" s="135"/>
       <c r="T394" s="44"/>
     </row>
-    <row r="395" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:20" ht="57.95" hidden="1">
       <c r="A395" s="225">
         <v>45967</v>
       </c>
@@ -38197,7 +38618,7 @@
       <c r="S395" s="135"/>
       <c r="T395" s="44"/>
     </row>
-    <row r="396" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:20" ht="43.5" hidden="1">
       <c r="A396" s="225">
         <v>45966</v>
       </c>
@@ -38241,7 +38662,7 @@
       <c r="S396" s="135"/>
       <c r="T396" s="44"/>
     </row>
-    <row r="397" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:20" ht="43.5" hidden="1">
       <c r="A397" s="225">
         <v>45966</v>
       </c>
@@ -38285,7 +38706,7 @@
       <c r="S397" s="135"/>
       <c r="T397" s="44"/>
     </row>
-    <row r="398" spans="1:20" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:20" ht="29.25" hidden="1" customHeight="1">
       <c r="A398" s="225">
         <v>45967</v>
       </c>
@@ -38329,7 +38750,7 @@
       <c r="S398" s="135"/>
       <c r="T398" s="44"/>
     </row>
-    <row r="399" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A399" s="225">
         <v>45980</v>
       </c>
@@ -38375,7 +38796,7 @@
       <c r="S399" s="135"/>
       <c r="T399" s="44"/>
     </row>
-    <row r="400" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:20" ht="43.5" hidden="1">
       <c r="A400" s="225">
         <v>45966</v>
       </c>
@@ -38421,7 +38842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="401" spans="1:20" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:20" ht="77.25" hidden="1" customHeight="1">
       <c r="A401" s="225">
         <v>45966</v>
       </c>
@@ -38467,7 +38888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="402" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A402" s="225">
         <v>45973</v>
       </c>
@@ -38513,7 +38934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="403" spans="1:20" ht="104.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:20" ht="104.25" hidden="1" customHeight="1">
       <c r="A403" s="234">
         <v>45986</v>
       </c>
@@ -38557,7 +38978,7 @@
       <c r="S403" s="135"/>
       <c r="T403" s="44"/>
     </row>
-    <row r="404" spans="1:20" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:20" ht="78" hidden="1" customHeight="1">
       <c r="A404" s="225">
         <v>45978</v>
       </c>
@@ -38603,7 +39024,7 @@
       <c r="S404" s="135"/>
       <c r="T404" s="44"/>
     </row>
-    <row r="405" spans="1:20" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:20" ht="30.75" hidden="1" customHeight="1">
       <c r="A405" s="225">
         <v>45966</v>
       </c>
@@ -38649,7 +39070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="406" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A406" s="225">
         <v>45973</v>
       </c>
@@ -38693,7 +39114,7 @@
       <c r="S406" s="135"/>
       <c r="T406" s="44"/>
     </row>
-    <row r="407" spans="1:20" ht="213" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:20" ht="213" hidden="1" customHeight="1">
       <c r="A407" s="234">
         <v>45966</v>
       </c>
@@ -38723,7 +39144,7 @@
       <c r="M407" s="239">
         <v>45966</v>
       </c>
-      <c r="N407" s="37" t="s">
+      <c r="N407" s="56" t="s">
         <v>161</v>
       </c>
       <c r="O407" s="38" t="s">
@@ -38741,7 +39162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="408" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:20" ht="87" hidden="1">
       <c r="A408" s="234">
         <v>45966</v>
       </c>
@@ -38787,7 +39208,7 @@
       <c r="S408" s="135"/>
       <c r="T408" s="44"/>
     </row>
-    <row r="409" spans="1:20" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:20" ht="30.75" hidden="1" customHeight="1">
       <c r="A409" s="225">
         <v>45967</v>
       </c>
@@ -38831,7 +39252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="410" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A410" s="225">
         <v>45971</v>
       </c>
@@ -38881,7 +39302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A411" s="225">
         <v>45971</v>
       </c>
@@ -38923,7 +39344,7 @@
       <c r="S411" s="135"/>
       <c r="T411" s="44"/>
     </row>
-    <row r="412" spans="1:20" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:20" ht="63" hidden="1" customHeight="1">
       <c r="A412" s="225">
         <v>45968</v>
       </c>
@@ -38967,7 +39388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="413" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A413" s="225">
         <v>45981</v>
       </c>
@@ -39013,7 +39434,7 @@
       <c r="S413" s="135"/>
       <c r="T413" s="44"/>
     </row>
-    <row r="414" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A414" s="225">
         <v>45973</v>
       </c>
@@ -39055,7 +39476,7 @@
       <c r="S414" s="135"/>
       <c r="T414" s="44"/>
     </row>
-    <row r="415" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A415" s="225">
         <v>45975</v>
       </c>
@@ -39097,7 +39518,7 @@
       <c r="S415" s="135"/>
       <c r="T415" s="44"/>
     </row>
-    <row r="416" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A416" s="225">
         <v>45973</v>
       </c>
@@ -39139,7 +39560,7 @@
       <c r="S416" s="135"/>
       <c r="T416" s="44"/>
     </row>
-    <row r="417" spans="1:20" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:20" ht="70.5" hidden="1" customHeight="1">
       <c r="A417" s="225">
         <v>45978</v>
       </c>
@@ -39181,7 +39602,7 @@
       <c r="S417" s="135"/>
       <c r="T417" s="44"/>
     </row>
-    <row r="418" spans="1:20" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:20" ht="48" hidden="1" customHeight="1">
       <c r="A418" s="225">
         <v>45968</v>
       </c>
@@ -39223,7 +39644,7 @@
       <c r="S418" s="135"/>
       <c r="T418" s="44"/>
     </row>
-    <row r="419" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A419" s="225">
         <v>45973</v>
       </c>
@@ -39265,7 +39686,7 @@
       <c r="S419" s="135"/>
       <c r="T419" s="44"/>
     </row>
-    <row r="420" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A420" s="225">
         <v>45980</v>
       </c>
@@ -39313,7 +39734,7 @@
       </c>
       <c r="T420" s="44"/>
     </row>
-    <row r="421" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A421" s="234">
         <v>45972</v>
       </c>
@@ -39357,7 +39778,7 @@
       <c r="S421" s="135"/>
       <c r="T421" s="44"/>
     </row>
-    <row r="422" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A422" s="225">
         <v>45971</v>
       </c>
@@ -39401,7 +39822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="423" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A423" s="225">
         <v>45972</v>
       </c>
@@ -39445,7 +39866,7 @@
       <c r="S423" s="135"/>
       <c r="T423" s="44"/>
     </row>
-    <row r="424" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A424" s="225">
         <v>45972</v>
       </c>
@@ -39489,7 +39910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="425" spans="1:20" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:20" ht="109.5" hidden="1" customHeight="1">
       <c r="A425" s="225">
         <v>45986</v>
       </c>
@@ -39531,7 +39952,7 @@
       <c r="S425" s="135"/>
       <c r="T425" s="44"/>
     </row>
-    <row r="426" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A426" s="225">
         <v>45972</v>
       </c>
@@ -39577,7 +39998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="427" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A427" s="234">
         <v>45980</v>
       </c>
@@ -39625,7 +40046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="428" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A428" s="225">
         <v>45973</v>
       </c>
@@ -39669,7 +40090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="429" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A429" s="225">
         <v>45973</v>
       </c>
@@ -39713,7 +40134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="430" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:20" ht="43.5" hidden="1">
       <c r="A430" s="225">
         <v>45973</v>
       </c>
@@ -39759,7 +40180,7 @@
       </c>
       <c r="T430" s="44"/>
     </row>
-    <row r="431" spans="1:20" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:20" ht="46.5" hidden="1" customHeight="1">
       <c r="A431" s="225">
         <v>45994</v>
       </c>
@@ -39803,7 +40224,7 @@
       <c r="S431" s="135"/>
       <c r="T431" s="44"/>
     </row>
-    <row r="432" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A432" s="225">
         <v>45973</v>
       </c>
@@ -39847,7 +40268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="433" spans="1:20" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:20" ht="122.25" hidden="1" customHeight="1">
       <c r="A433" s="225">
         <v>45986</v>
       </c>
@@ -39889,7 +40310,7 @@
       <c r="S433" s="135"/>
       <c r="T433" s="44"/>
     </row>
-    <row r="434" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A434" s="225">
         <v>45974</v>
       </c>
@@ -39931,7 +40352,7 @@
       <c r="S434" s="135"/>
       <c r="T434" s="44"/>
     </row>
-    <row r="435" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A435" s="225">
         <v>45975</v>
       </c>
@@ -39973,7 +40394,7 @@
       <c r="S435" s="135"/>
       <c r="T435" s="44"/>
     </row>
-    <row r="436" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A436" s="225">
         <v>45973</v>
       </c>
@@ -40017,7 +40438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="437" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:20" ht="43.5" hidden="1">
       <c r="A437" s="225">
         <v>45973</v>
       </c>
@@ -40059,7 +40480,7 @@
       <c r="S437" s="135"/>
       <c r="T437" s="44"/>
     </row>
-    <row r="438" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A438" s="225">
         <v>45974</v>
       </c>
@@ -40101,7 +40522,7 @@
       <c r="S438" s="135"/>
       <c r="T438" s="44"/>
     </row>
-    <row r="439" spans="1:20" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A439" s="225">
         <v>45974</v>
       </c>
@@ -40143,7 +40564,7 @@
       <c r="S439" s="135"/>
       <c r="T439" s="44"/>
     </row>
-    <row r="440" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A440" s="225">
         <v>45980</v>
       </c>
@@ -40189,7 +40610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="441" spans="1:20" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:20" ht="174" hidden="1">
       <c r="A441" s="225">
         <v>45992</v>
       </c>
@@ -40235,8 +40656,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="442" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A442" s="225">
+    <row r="442" spans="1:20" ht="116.1" hidden="1">
+      <c r="A442" s="234">
         <v>46003</v>
       </c>
       <c r="B442" s="168" t="s">
@@ -40275,7 +40696,7 @@
         <v>825</v>
       </c>
       <c r="Q442" s="65"/>
-      <c r="R442" s="230" t="s">
+      <c r="R442" s="188" t="s">
         <v>1650</v>
       </c>
       <c r="S442" s="135"/>
@@ -40283,7 +40704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="443" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:20" ht="144.94999999999999" hidden="1">
       <c r="A443" s="225">
         <v>45982</v>
       </c>
@@ -40331,7 +40752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="444" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:20" ht="43.5" hidden="1">
       <c r="A444" s="216">
         <v>45979</v>
       </c>
@@ -40375,7 +40796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="445" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:20" ht="87" hidden="1">
       <c r="A445" s="225">
         <v>45981</v>
       </c>
@@ -40423,7 +40844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="446" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:20" ht="57.95" hidden="1">
       <c r="A446" s="225">
         <v>45980</v>
       </c>
@@ -40473,7 +40894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="447" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A447" s="225">
         <v>45980</v>
       </c>
@@ -40517,7 +40938,7 @@
       <c r="S447" s="135"/>
       <c r="T447" s="44"/>
     </row>
-    <row r="448" spans="1:20" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:20" ht="49.5" hidden="1" customHeight="1">
       <c r="A448" s="216">
         <v>45979</v>
       </c>
@@ -40561,53 +40982,53 @@
         <v>40</v>
       </c>
     </row>
-    <row r="449" spans="1:20" ht="113.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A449" s="225">
-        <v>46006</v>
-      </c>
-      <c r="B449" s="168" t="s">
+    <row r="449" spans="1:20" ht="113.25" customHeight="1">
+      <c r="A449" s="234">
+        <v>46008</v>
+      </c>
+      <c r="B449" s="167" t="s">
         <v>1670</v>
       </c>
-      <c r="C449" s="65"/>
-      <c r="D449" s="65"/>
-      <c r="E449" s="65" t="s">
+      <c r="C449" s="36"/>
+      <c r="D449" s="36"/>
+      <c r="E449" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="F449" s="65"/>
-      <c r="G449" s="63"/>
-      <c r="H449" s="63"/>
-      <c r="I449" s="65" t="s">
+      <c r="F449" s="36"/>
+      <c r="G449" s="42"/>
+      <c r="H449" s="42"/>
+      <c r="I449" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="J449" s="66" t="s">
+      <c r="J449" s="43" t="s">
         <v>1671</v>
       </c>
-      <c r="K449" s="209"/>
-      <c r="L449" s="114" t="s">
+      <c r="K449" s="208"/>
+      <c r="L449" s="212" t="s">
         <v>638</v>
       </c>
-      <c r="M449" s="228">
+      <c r="M449" s="226">
         <v>45978.848344907405</v>
       </c>
-      <c r="N449" s="88" t="s">
+      <c r="N449" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="O449" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="P449" s="65" t="s">
+      <c r="O449" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P449" s="36" t="s">
         <v>825</v>
       </c>
-      <c r="Q449" s="65" t="s">
+      <c r="Q449" s="36" t="s">
         <v>1672</v>
       </c>
-      <c r="R449" s="230" t="s">
+      <c r="R449" s="227" t="s">
         <v>1673</v>
       </c>
       <c r="S449" s="135"/>
       <c r="T449" s="44"/>
     </row>
-    <row r="450" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A450" s="216">
         <v>45979</v>
       </c>
@@ -40657,7 +41078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="451" spans="1:20" ht="136.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:20" ht="136.5" hidden="1" customHeight="1">
       <c r="A451" s="225">
         <v>45986</v>
       </c>
@@ -40699,7 +41120,7 @@
       <c r="S451" s="135"/>
       <c r="T451" s="44"/>
     </row>
-    <row r="452" spans="1:20" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:20" ht="14.45" hidden="1">
       <c r="A452" s="216">
         <v>45979</v>
       </c>
@@ -40741,7 +41162,7 @@
       <c r="S452" s="135"/>
       <c r="T452" s="44"/>
     </row>
-    <row r="453" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:20" ht="87" hidden="1">
       <c r="A453" s="225">
         <v>45992</v>
       </c>
@@ -40789,7 +41210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="454" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:20" ht="87" hidden="1">
       <c r="A454" s="225">
         <v>45992</v>
       </c>
@@ -40837,7 +41258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="455" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:20" ht="29.1" hidden="1">
       <c r="A455" s="216">
         <v>45979</v>
       </c>
@@ -40881,7 +41302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="456" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:20" ht="101.45" hidden="1">
       <c r="A456" s="225">
         <v>45994</v>
       </c>
@@ -40927,7 +41348,7 @@
       <c r="S456" s="135"/>
       <c r="T456" s="44"/>
     </row>
-    <row r="457" spans="1:20" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:20" ht="14.45" hidden="1">
       <c r="A457" s="225">
         <v>45980</v>
       </c>
@@ -40971,7 +41392,7 @@
       <c r="S457" s="135"/>
       <c r="T457" s="44"/>
     </row>
-    <row r="458" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:20" ht="43.5" hidden="1">
       <c r="A458" s="225">
         <v>45981</v>
       </c>
@@ -41013,7 +41434,7 @@
       <c r="S458" s="135"/>
       <c r="T458" s="44"/>
     </row>
-    <row r="459" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:20" ht="29.1" hidden="1">
       <c r="A459" s="225">
         <v>45980</v>
       </c>
@@ -41057,7 +41478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="460" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:20" ht="29.1" hidden="1">
       <c r="A460" s="225">
         <v>45980</v>
       </c>
@@ -41101,7 +41522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="461" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:20" ht="29.1" hidden="1">
       <c r="A461" s="225">
         <v>45980</v>
       </c>
@@ -41145,7 +41566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="462" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:20" ht="130.5" hidden="1">
       <c r="A462" s="225">
         <v>45992</v>
       </c>
@@ -41189,7 +41610,7 @@
       <c r="S462" s="135"/>
       <c r="T462" s="44"/>
     </row>
-    <row r="463" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A463" s="225">
         <v>45981</v>
       </c>
@@ -41231,7 +41652,7 @@
       <c r="S463" s="135"/>
       <c r="T463" s="44"/>
     </row>
-    <row r="464" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:20" ht="87" hidden="1">
       <c r="A464" s="225">
         <v>45981</v>
       </c>
@@ -41273,7 +41694,7 @@
       <c r="S464" s="135"/>
       <c r="T464" s="44"/>
     </row>
-    <row r="465" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:20" ht="29.1" hidden="1">
       <c r="A465" s="225">
         <v>45981</v>
       </c>
@@ -41317,7 +41738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="466" spans="1:20" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:20" ht="14.45" hidden="1">
       <c r="A466" s="225">
         <v>45981</v>
       </c>
@@ -41361,7 +41782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="467" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A467" s="225">
         <v>45986</v>
       </c>
@@ -41403,7 +41824,7 @@
       <c r="S467" s="135"/>
       <c r="T467" s="44"/>
     </row>
-    <row r="468" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:20" ht="101.45" hidden="1">
       <c r="A468" s="225">
         <v>45996</v>
       </c>
@@ -41451,7 +41872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="469" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:20" ht="29.1" hidden="1">
       <c r="A469" s="225">
         <v>45982</v>
       </c>
@@ -41495,7 +41916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="470" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A470" s="225">
         <v>45982</v>
       </c>
@@ -41543,7 +41964,7 @@
       </c>
       <c r="T470" s="44"/>
     </row>
-    <row r="471" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:20" ht="101.45" hidden="1">
       <c r="A471" s="225">
         <v>45986</v>
       </c>
@@ -41585,7 +42006,7 @@
       <c r="S471" s="135"/>
       <c r="T471" s="44"/>
     </row>
-    <row r="472" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A472" s="225">
         <v>45982</v>
       </c>
@@ -41627,7 +42048,7 @@
       <c r="S472" s="135"/>
       <c r="T472" s="44"/>
     </row>
-    <row r="473" spans="1:20" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:20" ht="46.5" customHeight="1">
       <c r="A473" s="237">
         <v>46006</v>
       </c>
@@ -41671,7 +42092,7 @@
       <c r="S473" s="135"/>
       <c r="T473" s="44"/>
     </row>
-    <row r="474" spans="1:20" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:20" ht="159.6" hidden="1">
       <c r="A474" s="237">
         <v>45995</v>
       </c>
@@ -41715,7 +42136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="475" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A475" s="237">
         <v>45986</v>
       </c>
@@ -41757,7 +42178,7 @@
       <c r="S475" s="135"/>
       <c r="T475" s="44"/>
     </row>
-    <row r="476" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A476" s="237">
         <v>46003</v>
       </c>
@@ -41803,7 +42224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="477" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A477" s="237">
         <v>45986.282997685186</v>
       </c>
@@ -41847,7 +42268,7 @@
       <c r="S477" s="135"/>
       <c r="T477" s="44"/>
     </row>
-    <row r="478" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:20" ht="116.1" hidden="1">
       <c r="A478" s="237">
         <v>46000</v>
       </c>
@@ -41889,7 +42310,7 @@
       <c r="S478" s="135"/>
       <c r="T478" s="44"/>
     </row>
-    <row r="479" spans="1:20" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:20" ht="50.25" hidden="1" customHeight="1">
       <c r="A479" s="237">
         <v>45989</v>
       </c>
@@ -41933,7 +42354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="480" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A480" s="237">
         <v>45996</v>
       </c>
@@ -41977,7 +42398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="481" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A481" s="237">
         <v>45986.551249999997</v>
       </c>
@@ -42021,7 +42442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="482" spans="1:20" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:20" ht="67.5" hidden="1" customHeight="1">
       <c r="A482" s="237">
         <v>45995</v>
       </c>
@@ -42063,7 +42484,7 @@
       <c r="S482" s="135"/>
       <c r="T482" s="44"/>
     </row>
-    <row r="483" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A483" s="237">
         <v>45987</v>
       </c>
@@ -42107,7 +42528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="484" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A484" s="237">
         <v>45987</v>
       </c>
@@ -42149,7 +42570,7 @@
       <c r="S484" s="135"/>
       <c r="T484" s="44"/>
     </row>
-    <row r="485" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A485" s="243">
         <v>45995</v>
       </c>
@@ -42191,7 +42612,7 @@
       <c r="S485" s="135"/>
       <c r="T485" s="44"/>
     </row>
-    <row r="486" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A486" s="243">
         <v>46002</v>
       </c>
@@ -42235,7 +42656,7 @@
       <c r="S486" s="135"/>
       <c r="T486" s="44"/>
     </row>
-    <row r="487" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A487" s="243">
         <v>45988.291203703702</v>
       </c>
@@ -42277,7 +42698,7 @@
       <c r="S487" s="135"/>
       <c r="T487" s="44"/>
     </row>
-    <row r="488" spans="1:20" ht="111.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:20" ht="111.75" hidden="1" customHeight="1">
       <c r="A488" s="243">
         <v>45994</v>
       </c>
@@ -42323,7 +42744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="489" spans="1:20" ht="137.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:20" ht="137.25" hidden="1" customHeight="1">
       <c r="A489" s="243">
         <v>45996</v>
       </c>
@@ -42367,7 +42788,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="490" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A490" s="243">
         <v>45988.413726851853</v>
       </c>
@@ -42409,7 +42830,7 @@
       <c r="S490" s="135"/>
       <c r="T490" s="44"/>
     </row>
-    <row r="491" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A491" s="243">
         <v>45988.470185185186</v>
       </c>
@@ -42451,7 +42872,7 @@
       <c r="S491" s="135"/>
       <c r="T491" s="44"/>
     </row>
-    <row r="492" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A492" s="243">
         <v>45995</v>
       </c>
@@ -42493,7 +42914,7 @@
       <c r="S492" s="135"/>
       <c r="T492" s="44"/>
     </row>
-    <row r="493" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A493" s="243">
         <v>45996</v>
       </c>
@@ -42537,7 +42958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="494" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:20" ht="45" hidden="1" customHeight="1">
       <c r="A494" s="243">
         <v>45988.688750000001</v>
       </c>
@@ -42581,7 +43002,7 @@
       <c r="S494" s="135"/>
       <c r="T494" s="44"/>
     </row>
-    <row r="495" spans="1:20" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:20" ht="63.75" hidden="1" customHeight="1">
       <c r="A495" s="243">
         <v>46001</v>
       </c>
@@ -42625,7 +43046,7 @@
       <c r="S495" s="135"/>
       <c r="T495" s="44"/>
     </row>
-    <row r="496" spans="1:20" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:20" ht="186.75" hidden="1" customHeight="1">
       <c r="A496" s="243">
         <v>45989.423368055555</v>
       </c>
@@ -42635,7 +43056,7 @@
       <c r="C496" s="36"/>
       <c r="D496" s="36"/>
       <c r="E496" s="36" t="s">
-        <v>46</v>
+        <v>822</v>
       </c>
       <c r="F496" s="36"/>
       <c r="G496" s="42"/>
@@ -42646,33 +43067,33 @@
       <c r="J496" s="43" t="s">
         <v>1821</v>
       </c>
-      <c r="K496" s="263"/>
+      <c r="K496" s="208"/>
       <c r="L496" s="36" t="s">
         <v>1400</v>
       </c>
       <c r="M496" s="239">
         <v>45989.423368055555</v>
       </c>
-      <c r="N496" s="37" t="s">
+      <c r="N496" s="42" t="s">
         <v>161</v>
       </c>
       <c r="O496" s="42" t="s">
-        <v>50</v>
+        <v>1822</v>
       </c>
       <c r="P496" s="36"/>
       <c r="Q496" s="36"/>
       <c r="R496" s="227" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="S496" s="135"/>
       <c r="T496" s="44"/>
     </row>
-    <row r="497" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A497" s="243">
         <v>45989.423368055555</v>
       </c>
       <c r="B497" s="167" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C497" s="36"/>
       <c r="D497" s="36"/>
@@ -42686,7 +43107,7 @@
         <v>913</v>
       </c>
       <c r="J497" s="247" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="K497" s="36"/>
       <c r="L497" s="239" t="s">
@@ -42704,17 +43125,17 @@
       <c r="P497" s="36"/>
       <c r="Q497" s="36"/>
       <c r="R497" s="227" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="S497" s="135"/>
       <c r="T497" s="44"/>
     </row>
-    <row r="498" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A498" s="243">
         <v>45994</v>
       </c>
       <c r="B498" s="168" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="C498" s="65"/>
       <c r="D498" s="65"/>
@@ -42728,7 +43149,7 @@
         <v>913</v>
       </c>
       <c r="J498" s="66" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="K498" s="250"/>
       <c r="L498" s="63" t="s">
@@ -42746,17 +43167,17 @@
       <c r="P498" s="65"/>
       <c r="Q498" s="65"/>
       <c r="R498" s="230" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="S498" s="135"/>
       <c r="T498" s="44"/>
     </row>
-    <row r="499" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:20" ht="57.95" hidden="1">
       <c r="A499" s="243">
         <v>45996</v>
       </c>
       <c r="B499" s="168" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C499" s="65"/>
       <c r="D499" s="65"/>
@@ -42767,10 +43188,10 @@
       <c r="G499" s="63"/>
       <c r="H499" s="63"/>
       <c r="I499" s="65" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="J499" s="66" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="K499" s="209"/>
       <c r="L499" s="65" t="s">
@@ -42788,17 +43209,17 @@
       <c r="P499" s="65"/>
       <c r="Q499" s="65"/>
       <c r="R499" s="230" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="S499" s="135"/>
       <c r="T499" s="44"/>
     </row>
-    <row r="500" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:20" ht="29.1" hidden="1">
       <c r="A500" s="243">
         <v>45991</v>
       </c>
       <c r="B500" s="167" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="C500" s="36"/>
       <c r="D500" s="36"/>
@@ -42812,7 +43233,7 @@
         <v>426</v>
       </c>
       <c r="J500" s="43" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="K500" s="208"/>
       <c r="L500" s="36" t="s">
@@ -42830,19 +43251,19 @@
       <c r="P500" s="36"/>
       <c r="Q500" s="36"/>
       <c r="R500" s="227" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="S500" s="135"/>
       <c r="T500" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="501" spans="1:20" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:20" ht="35.25" hidden="1" customHeight="1">
       <c r="A501" s="243">
         <v>45993</v>
       </c>
       <c r="B501" s="168" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C501" s="65"/>
       <c r="D501" s="65"/>
@@ -42856,7 +43277,7 @@
         <v>1622</v>
       </c>
       <c r="J501" s="66" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="K501" s="209"/>
       <c r="L501" s="240" t="s">
@@ -42874,61 +43295,61 @@
       <c r="P501" s="65"/>
       <c r="Q501" s="65"/>
       <c r="R501" s="230" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="S501" s="135"/>
       <c r="T501" s="44"/>
     </row>
-    <row r="502" spans="1:20" ht="140.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:20" ht="140.25" customHeight="1">
       <c r="A502" s="243">
+        <v>46007</v>
+      </c>
+      <c r="B502" s="168" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C502" s="65"/>
+      <c r="D502" s="65"/>
+      <c r="E502" s="65" t="s">
+        <v>822</v>
+      </c>
+      <c r="F502" s="65"/>
+      <c r="G502" s="63"/>
+      <c r="H502" s="63"/>
+      <c r="I502" s="65" t="s">
+        <v>828</v>
+      </c>
+      <c r="J502" s="66" t="s">
+        <v>1841</v>
+      </c>
+      <c r="K502" s="209"/>
+      <c r="L502" s="65">
+        <v>3003</v>
+      </c>
+      <c r="M502" s="241">
         <v>45992</v>
       </c>
-      <c r="B502" s="167" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C502" s="36"/>
-      <c r="D502" s="36"/>
-      <c r="E502" s="36" t="s">
-        <v>822</v>
-      </c>
-      <c r="F502" s="36"/>
-      <c r="G502" s="42"/>
-      <c r="H502" s="42"/>
-      <c r="I502" s="36" t="s">
-        <v>828</v>
-      </c>
-      <c r="J502" s="43" t="s">
-        <v>1840</v>
-      </c>
-      <c r="K502" s="208"/>
-      <c r="L502" s="36">
-        <v>3003</v>
-      </c>
-      <c r="M502" s="239">
-        <v>45992</v>
-      </c>
-      <c r="N502" s="42" t="s">
+      <c r="N502" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="O502" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="P502" s="36"/>
-      <c r="Q502" s="36"/>
-      <c r="R502" s="227" t="s">
-        <v>1841</v>
+      <c r="O502" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="P502" s="65"/>
+      <c r="Q502" s="65"/>
+      <c r="R502" s="230" t="s">
+        <v>1842</v>
       </c>
       <c r="S502" s="135" t="s">
         <v>40</v>
       </c>
       <c r="T502" s="44"/>
     </row>
-    <row r="503" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:20" ht="29.1" hidden="1">
       <c r="A503" s="243">
         <v>45993</v>
       </c>
       <c r="B503" s="168" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C503" s="65"/>
       <c r="D503" s="65"/>
@@ -42942,7 +43363,7 @@
         <v>35</v>
       </c>
       <c r="J503" s="66" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="K503" s="209"/>
       <c r="L503" s="65">
@@ -42960,19 +43381,19 @@
       <c r="P503" s="65"/>
       <c r="Q503" s="65"/>
       <c r="R503" s="230" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="S503" s="135"/>
       <c r="T503" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="504" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:20" ht="43.5" hidden="1">
       <c r="A504" s="243">
         <v>45993</v>
       </c>
       <c r="B504" s="168" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C504" s="65"/>
       <c r="D504" s="65"/>
@@ -42988,7 +43409,7 @@
         <v>35</v>
       </c>
       <c r="J504" s="66" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="K504" s="209"/>
       <c r="L504" s="65">
@@ -43006,19 +43427,19 @@
       <c r="P504" s="65"/>
       <c r="Q504" s="65"/>
       <c r="R504" s="230" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="S504" s="135"/>
       <c r="T504" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="505" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A505" s="243">
         <v>45993</v>
       </c>
       <c r="B505" s="168" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C505" s="65"/>
       <c r="D505" s="65"/>
@@ -43029,10 +43450,10 @@
       <c r="G505" s="63"/>
       <c r="H505" s="63"/>
       <c r="I505" s="65" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="J505" s="66" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="K505" s="209"/>
       <c r="L505" s="65" t="s">
@@ -43050,17 +43471,17 @@
       <c r="P505" s="65"/>
       <c r="Q505" s="65"/>
       <c r="R505" s="230" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="S505" s="135"/>
       <c r="T505" s="44"/>
     </row>
-    <row r="506" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:20" ht="57.95" hidden="1">
       <c r="A506" s="243">
         <v>45994</v>
       </c>
       <c r="B506" s="168" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C506" s="65"/>
       <c r="D506" s="65"/>
@@ -43074,7 +43495,7 @@
         <v>35</v>
       </c>
       <c r="J506" s="66" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="K506" s="209"/>
       <c r="L506" s="76">
@@ -43092,19 +43513,19 @@
       <c r="P506" s="65"/>
       <c r="Q506" s="65"/>
       <c r="R506" s="230" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="S506" s="135"/>
       <c r="T506" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="507" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:20" ht="43.5" hidden="1">
       <c r="A507" s="243">
         <v>45994</v>
       </c>
       <c r="B507" s="168" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C507" s="65"/>
       <c r="D507" s="65"/>
@@ -43120,7 +43541,7 @@
         <v>35</v>
       </c>
       <c r="J507" s="66" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="K507" s="209"/>
       <c r="L507" s="65">
@@ -43138,19 +43559,19 @@
       <c r="P507" s="65"/>
       <c r="Q507" s="65"/>
       <c r="R507" s="230" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="S507" s="135"/>
       <c r="T507" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="508" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A508" s="243">
         <v>45993</v>
       </c>
       <c r="B508" s="167" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C508" s="36"/>
       <c r="D508" s="36"/>
@@ -43164,7 +43585,7 @@
         <v>1500</v>
       </c>
       <c r="J508" s="43" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="K508" s="208"/>
       <c r="L508" s="36" t="s">
@@ -43182,17 +43603,17 @@
       <c r="P508" s="36"/>
       <c r="Q508" s="36"/>
       <c r="R508" s="227" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="S508" s="135"/>
       <c r="T508" s="44"/>
     </row>
-    <row r="509" spans="1:20" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:20" ht="49.5" hidden="1" customHeight="1">
       <c r="A509" s="243">
         <v>46003</v>
       </c>
       <c r="B509" s="168" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C509" s="65"/>
       <c r="D509" s="65"/>
@@ -43206,7 +43627,7 @@
         <v>1556</v>
       </c>
       <c r="J509" s="66" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="K509" s="209"/>
       <c r="L509" s="65" t="s">
@@ -43224,17 +43645,17 @@
       <c r="P509" s="65"/>
       <c r="Q509" s="65"/>
       <c r="R509" s="230" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="S509" s="135"/>
       <c r="T509" s="44"/>
     </row>
-    <row r="510" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:20" ht="29.1" hidden="1">
       <c r="A510" s="243">
         <v>45995</v>
       </c>
       <c r="B510" s="168" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C510" s="65"/>
       <c r="D510" s="65"/>
@@ -43248,7 +43669,7 @@
         <v>35</v>
       </c>
       <c r="J510" s="66" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="K510" s="209"/>
       <c r="L510" s="65" t="s">
@@ -43266,19 +43687,19 @@
       <c r="P510" s="65"/>
       <c r="Q510" s="65"/>
       <c r="R510" s="230" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="S510" s="135"/>
       <c r="T510" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="511" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:20" ht="29.1" hidden="1">
       <c r="A511" s="243">
         <v>45995</v>
       </c>
       <c r="B511" s="168" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C511" s="65"/>
       <c r="D511" s="65"/>
@@ -43292,7 +43713,7 @@
         <v>426</v>
       </c>
       <c r="J511" s="66" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="K511" s="209"/>
       <c r="L511" s="65" t="s">
@@ -43310,19 +43731,19 @@
       <c r="P511" s="65"/>
       <c r="Q511" s="65"/>
       <c r="R511" s="230" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="S511" s="135"/>
       <c r="T511" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="512" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:20" ht="29.1" hidden="1">
       <c r="A512" s="243">
         <v>45995</v>
       </c>
       <c r="B512" s="168" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C512" s="65"/>
       <c r="D512" s="65"/>
@@ -43336,7 +43757,7 @@
         <v>426</v>
       </c>
       <c r="J512" s="66" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="K512" s="209"/>
       <c r="L512" s="65" t="s">
@@ -43354,19 +43775,19 @@
       <c r="P512" s="65"/>
       <c r="Q512" s="65"/>
       <c r="R512" s="230" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="S512" s="135"/>
       <c r="T512" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="513" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:20" ht="116.1">
       <c r="A513" s="243">
         <v>46006</v>
       </c>
       <c r="B513" s="168" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C513" s="65"/>
       <c r="D513" s="65"/>
@@ -43377,10 +43798,10 @@
       <c r="G513" s="65"/>
       <c r="H513" s="65"/>
       <c r="I513" s="65" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="J513" s="66" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="K513" s="209"/>
       <c r="L513" s="65" t="s">
@@ -43398,19 +43819,19 @@
       <c r="P513" s="65"/>
       <c r="Q513" s="65"/>
       <c r="R513" s="230" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="S513" s="135"/>
       <c r="T513" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="514" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A514" s="243">
         <v>45995</v>
       </c>
       <c r="B514" s="167" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C514" s="36"/>
       <c r="D514" s="36"/>
@@ -43424,7 +43845,7 @@
         <v>1723</v>
       </c>
       <c r="J514" s="43" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="K514" s="208"/>
       <c r="L514" s="36" t="s">
@@ -43442,17 +43863,17 @@
       <c r="P514" s="36"/>
       <c r="Q514" s="36"/>
       <c r="R514" s="227" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="S514" s="135"/>
       <c r="T514" s="44"/>
     </row>
-    <row r="515" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:20" ht="57.95" hidden="1">
       <c r="A515" s="243">
         <v>45995</v>
       </c>
       <c r="B515" s="167" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C515" s="36"/>
       <c r="D515" s="36"/>
@@ -43468,7 +43889,7 @@
         <v>877</v>
       </c>
       <c r="J515" s="43" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="K515" s="208"/>
       <c r="L515" s="36" t="s">
@@ -43486,17 +43907,17 @@
       <c r="P515" s="36"/>
       <c r="Q515" s="36"/>
       <c r="R515" s="227" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="S515" s="135"/>
       <c r="T515" s="44"/>
     </row>
-    <row r="516" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:20" ht="43.5" hidden="1">
       <c r="A516" s="243">
         <v>45996</v>
       </c>
       <c r="B516" s="167" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C516" s="36"/>
       <c r="D516" s="36"/>
@@ -43510,7 +43931,7 @@
         <v>877</v>
       </c>
       <c r="J516" s="43" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="K516" s="208"/>
       <c r="L516" s="36" t="s">
@@ -43528,17 +43949,17 @@
       <c r="P516" s="36"/>
       <c r="Q516" s="36"/>
       <c r="R516" s="227" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="S516" s="135"/>
       <c r="T516" s="44"/>
     </row>
-    <row r="517" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:20" ht="72.599999999999994" hidden="1">
       <c r="A517" s="243">
         <v>45996</v>
       </c>
       <c r="B517" s="167" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C517" s="36"/>
       <c r="D517" s="36"/>
@@ -43552,7 +43973,7 @@
         <v>1556</v>
       </c>
       <c r="J517" s="43" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="K517" s="208"/>
       <c r="L517" s="36" t="s">
@@ -43570,17 +43991,17 @@
       <c r="P517" s="36"/>
       <c r="Q517" s="36"/>
       <c r="R517" s="227" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="S517" s="135"/>
       <c r="T517" s="44"/>
     </row>
-    <row r="518" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:20" ht="43.5" hidden="1">
       <c r="A518" s="243">
         <v>46002</v>
       </c>
       <c r="B518" s="168" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C518" s="65"/>
       <c r="D518" s="65"/>
@@ -43596,7 +44017,7 @@
         <v>877</v>
       </c>
       <c r="J518" s="66" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="K518" s="209"/>
       <c r="L518" s="65" t="s">
@@ -43614,17 +44035,17 @@
       <c r="P518" s="65"/>
       <c r="Q518" s="65"/>
       <c r="R518" s="230" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="S518" s="135"/>
       <c r="T518" s="44"/>
     </row>
-    <row r="519" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A519" s="243">
         <v>46001</v>
       </c>
       <c r="B519" s="168" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C519" s="65"/>
       <c r="D519" s="65"/>
@@ -43638,7 +44059,7 @@
         <v>426</v>
       </c>
       <c r="J519" s="66" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="K519" s="209"/>
       <c r="L519" s="65" t="s">
@@ -43656,19 +44077,19 @@
       <c r="P519" s="65"/>
       <c r="Q519" s="65"/>
       <c r="R519" s="230" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="S519" s="135"/>
       <c r="T519" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="520" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A520" s="243">
         <v>45996.664525462962</v>
       </c>
       <c r="B520" s="167" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C520" s="36"/>
       <c r="D520" s="36"/>
@@ -43684,7 +44105,7 @@
         <v>426</v>
       </c>
       <c r="J520" s="43" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="K520" s="208"/>
       <c r="L520" s="36" t="s">
@@ -43702,19 +44123,19 @@
       <c r="P520" s="36"/>
       <c r="Q520" s="36"/>
       <c r="R520" s="227" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="S520" s="135"/>
       <c r="T520" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="521" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A521" s="243">
         <v>45996.672233796293</v>
       </c>
       <c r="B521" s="167" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C521" s="36"/>
       <c r="D521" s="36"/>
@@ -43730,7 +44151,7 @@
         <v>426</v>
       </c>
       <c r="J521" s="43" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="K521" s="208"/>
       <c r="L521" s="36">
@@ -43748,19 +44169,19 @@
       <c r="P521" s="36"/>
       <c r="Q521" s="36"/>
       <c r="R521" s="227" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="S521" s="135"/>
       <c r="T521" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="522" spans="1:20" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:20" ht="57.95" hidden="1">
       <c r="A522" s="243">
         <v>45999.15525462963</v>
       </c>
       <c r="B522" s="168" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C522" s="65"/>
       <c r="D522" s="65"/>
@@ -43771,10 +44192,10 @@
       <c r="G522" s="63"/>
       <c r="H522" s="63"/>
       <c r="I522" s="65" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="J522" s="66" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="K522" s="209"/>
       <c r="L522" s="65" t="s">
@@ -43792,17 +44213,17 @@
       <c r="P522" s="65"/>
       <c r="Q522" s="65"/>
       <c r="R522" s="230" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="S522" s="135"/>
       <c r="T522" s="44"/>
     </row>
-    <row r="523" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A523" s="243">
         <v>45999.307222222225</v>
       </c>
       <c r="B523" s="167" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C523" s="36"/>
       <c r="D523" s="36"/>
@@ -43818,7 +44239,7 @@
         <v>426</v>
       </c>
       <c r="J523" s="43" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="K523" s="208"/>
       <c r="L523" s="36" t="s">
@@ -43836,17 +44257,17 @@
       <c r="P523" s="36"/>
       <c r="Q523" s="36"/>
       <c r="R523" s="227" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="S523" s="135"/>
       <c r="T523" s="44"/>
     </row>
-    <row r="524" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A524" s="243">
         <v>45999.312002314815</v>
       </c>
       <c r="B524" s="168" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="C524" s="65"/>
       <c r="D524" s="65"/>
@@ -43862,7 +44283,7 @@
         <v>426</v>
       </c>
       <c r="J524" s="66" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="K524" s="209"/>
       <c r="L524" s="65" t="s">
@@ -43880,19 +44301,19 @@
       <c r="P524" s="65"/>
       <c r="Q524" s="65"/>
       <c r="R524" s="230" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="S524" s="135"/>
       <c r="T524" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="525" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:20" ht="43.5" hidden="1">
       <c r="A525" s="243">
         <v>46001</v>
       </c>
       <c r="B525" s="168" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C525" s="65"/>
       <c r="D525" s="65"/>
@@ -43906,7 +44327,7 @@
         <v>1452</v>
       </c>
       <c r="J525" s="66" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="K525" s="209"/>
       <c r="L525" s="65" t="s">
@@ -43924,17 +44345,17 @@
       <c r="P525" s="65"/>
       <c r="Q525" s="65"/>
       <c r="R525" s="230" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="S525" s="135"/>
       <c r="T525" s="44"/>
     </row>
-    <row r="526" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:20" ht="25.5" customHeight="1">
       <c r="A526" s="243">
         <v>46006</v>
       </c>
       <c r="B526" s="168" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="C526" s="65"/>
       <c r="D526" s="65"/>
@@ -43947,10 +44368,10 @@
         <v>40</v>
       </c>
       <c r="I526" s="65" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="J526" s="66" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="K526" s="209"/>
       <c r="L526" s="65" t="s">
@@ -43968,17 +44389,17 @@
       <c r="P526" s="65"/>
       <c r="Q526" s="65"/>
       <c r="R526" s="230" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="S526" s="135"/>
       <c r="T526" s="44"/>
     </row>
-    <row r="527" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A527" s="243">
         <v>45999.438391203701</v>
       </c>
       <c r="B527" s="167" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C527" s="36"/>
       <c r="D527" s="36"/>
@@ -43994,7 +44415,7 @@
         <v>1238</v>
       </c>
       <c r="J527" s="43" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="K527" s="208"/>
       <c r="L527" s="36" t="s">
@@ -44012,19 +44433,19 @@
       <c r="P527" s="36"/>
       <c r="Q527" s="36"/>
       <c r="R527" s="227" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="S527" s="135"/>
       <c r="T527" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="528" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A528" s="243">
         <v>46002</v>
       </c>
       <c r="B528" s="168" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C528" s="65"/>
       <c r="D528" s="65"/>
@@ -44035,10 +44456,10 @@
       <c r="G528" s="63"/>
       <c r="H528" s="63"/>
       <c r="I528" s="65" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J528" s="66" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="K528" s="209"/>
       <c r="L528" s="65" t="s">
@@ -44056,19 +44477,19 @@
       <c r="P528" s="65"/>
       <c r="Q528" s="65"/>
       <c r="R528" s="230" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="S528" s="135"/>
       <c r="T528" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="529" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A529" s="243">
         <v>46002</v>
       </c>
       <c r="B529" s="168" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="C529" s="65"/>
       <c r="D529" s="65"/>
@@ -44079,10 +44500,10 @@
       <c r="G529" s="63"/>
       <c r="H529" s="63"/>
       <c r="I529" s="65" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="J529" s="66" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="K529" s="209"/>
       <c r="L529" s="65" t="s">
@@ -44100,17 +44521,17 @@
       <c r="P529" s="65"/>
       <c r="Q529" s="65"/>
       <c r="R529" s="230" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="S529" s="135"/>
       <c r="T529" s="44"/>
     </row>
-    <row r="530" spans="1:20" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:20" ht="30.75" hidden="1" customHeight="1">
       <c r="A530" s="243">
         <v>46001</v>
       </c>
       <c r="B530" s="168" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C530" s="65"/>
       <c r="D530" s="65"/>
@@ -44124,7 +44545,7 @@
         <v>426</v>
       </c>
       <c r="J530" s="66" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="K530" s="209"/>
       <c r="L530" s="65" t="s">
@@ -44142,19 +44563,19 @@
       <c r="P530" s="65"/>
       <c r="Q530" s="65"/>
       <c r="R530" s="230" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="S530" s="135"/>
       <c r="T530" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="531" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A531" s="243">
         <v>45999.837870370371</v>
       </c>
       <c r="B531" s="168" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="C531" s="65"/>
       <c r="D531" s="65"/>
@@ -44168,7 +44589,7 @@
         <v>426</v>
       </c>
       <c r="J531" s="66" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="K531" s="209"/>
       <c r="L531" s="65" t="s">
@@ -44186,19 +44607,19 @@
       <c r="P531" s="65"/>
       <c r="Q531" s="65"/>
       <c r="R531" s="230" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="S531" s="135"/>
       <c r="T531" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="532" spans="1:20" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:20" ht="29.1" hidden="1">
       <c r="A532" s="243">
         <v>46000.28570601852</v>
       </c>
       <c r="B532" s="168" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C532" s="65"/>
       <c r="D532" s="65"/>
@@ -44209,10 +44630,10 @@
       <c r="G532" s="63"/>
       <c r="H532" s="63"/>
       <c r="I532" s="65" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="J532" s="66" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="K532" s="209"/>
       <c r="L532" s="65" t="s">
@@ -44230,17 +44651,17 @@
       <c r="P532" s="65"/>
       <c r="Q532" s="65"/>
       <c r="R532" s="230" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="S532" s="135"/>
       <c r="T532" s="44"/>
     </row>
-    <row r="533" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A533" s="243">
         <v>46000.30369212963</v>
       </c>
       <c r="B533" s="168" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C533" s="65"/>
       <c r="D533" s="65"/>
@@ -44254,7 +44675,7 @@
         <v>641</v>
       </c>
       <c r="J533" s="66" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="K533" s="209"/>
       <c r="L533" s="65" t="s">
@@ -44272,19 +44693,19 @@
       <c r="P533" s="65"/>
       <c r="Q533" s="65"/>
       <c r="R533" s="230" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="S533" s="135"/>
       <c r="T533" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="534" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A534" s="243">
         <v>46002</v>
       </c>
       <c r="B534" s="168" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C534" s="65"/>
       <c r="D534" s="65"/>
@@ -44300,7 +44721,7 @@
         <v>426</v>
       </c>
       <c r="J534" s="66" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="K534" s="209"/>
       <c r="L534" s="65">
@@ -44318,63 +44739,63 @@
       <c r="P534" s="65"/>
       <c r="Q534" s="65"/>
       <c r="R534" s="230" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="S534" s="135"/>
       <c r="T534" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="535" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A535" s="243">
         <v>46003</v>
       </c>
-      <c r="B535" s="167" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C535" s="36"/>
-      <c r="D535" s="36"/>
-      <c r="E535" s="36" t="s">
+      <c r="B535" s="168" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C535" s="65"/>
+      <c r="D535" s="65"/>
+      <c r="E535" s="65" t="s">
         <v>781</v>
       </c>
-      <c r="F535" s="36"/>
-      <c r="G535" s="42"/>
-      <c r="H535" s="42"/>
-      <c r="I535" s="36" t="s">
+      <c r="F535" s="65"/>
+      <c r="G535" s="63"/>
+      <c r="H535" s="63"/>
+      <c r="I535" s="65" t="s">
         <v>426</v>
       </c>
-      <c r="J535" s="43" t="s">
-        <v>1944</v>
-      </c>
-      <c r="K535" s="208"/>
-      <c r="L535" s="36">
+      <c r="J535" s="66" t="s">
+        <v>1945</v>
+      </c>
+      <c r="K535" s="209"/>
+      <c r="L535" s="65">
         <v>3014</v>
       </c>
-      <c r="M535" s="239">
+      <c r="M535" s="241">
         <v>46000.409016203703</v>
       </c>
-      <c r="N535" s="42" t="s">
+      <c r="N535" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="O535" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="P535" s="36"/>
-      <c r="Q535" s="36"/>
-      <c r="R535" s="227" t="s">
-        <v>1945</v>
+      <c r="O535" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="P535" s="65"/>
+      <c r="Q535" s="65"/>
+      <c r="R535" s="230" t="s">
+        <v>1946</v>
       </c>
       <c r="S535" s="135"/>
       <c r="T535" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="536" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A536" s="243">
         <v>46001</v>
       </c>
       <c r="B536" s="168" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C536" s="65"/>
       <c r="D536" s="65"/>
@@ -44388,7 +44809,7 @@
         <v>1047</v>
       </c>
       <c r="J536" s="66" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="K536" s="209"/>
       <c r="L536" s="65" t="s">
@@ -44406,17 +44827,17 @@
       <c r="P536" s="65"/>
       <c r="Q536" s="65"/>
       <c r="R536" s="230" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="S536" s="135"/>
       <c r="T536" s="44"/>
     </row>
-    <row r="537" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A537" s="243">
         <v>46002</v>
       </c>
       <c r="B537" s="168" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="C537" s="65"/>
       <c r="D537" s="65"/>
@@ -44429,10 +44850,10 @@
       </c>
       <c r="H537" s="63"/>
       <c r="I537" s="65" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="J537" s="66" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="K537" s="209"/>
       <c r="L537" s="65" t="s">
@@ -44450,17 +44871,17 @@
       <c r="P537" s="65"/>
       <c r="Q537" s="65"/>
       <c r="R537" s="230" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="S537" s="135"/>
       <c r="T537" s="44"/>
     </row>
-    <row r="538" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A538" s="243">
         <v>46001.452581018515</v>
       </c>
       <c r="B538" s="168" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="C538" s="65"/>
       <c r="D538" s="65"/>
@@ -44474,7 +44895,7 @@
         <v>426</v>
       </c>
       <c r="J538" s="66" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="K538" s="209"/>
       <c r="L538" s="65" t="s">
@@ -44492,19 +44913,19 @@
       <c r="P538" s="65"/>
       <c r="Q538" s="65"/>
       <c r="R538" s="230" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="S538" s="135"/>
       <c r="T538" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="539" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A539" s="243">
         <v>46001.508587962962</v>
       </c>
       <c r="B539" s="168" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="C539" s="65"/>
       <c r="D539" s="65"/>
@@ -44520,7 +44941,7 @@
         <v>1500</v>
       </c>
       <c r="J539" s="66" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="K539" s="209"/>
       <c r="L539" s="65" t="s">
@@ -44538,63 +44959,59 @@
       <c r="P539" s="65"/>
       <c r="Q539" s="65"/>
       <c r="R539" s="230" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="S539" s="135"/>
       <c r="T539" s="44"/>
     </row>
-    <row r="540" spans="1:20" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:20" ht="25.5" customHeight="1">
       <c r="A540" s="243">
+        <v>46007</v>
+      </c>
+      <c r="B540" s="168" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C540" s="65"/>
+      <c r="D540" s="65"/>
+      <c r="E540" s="65" t="s">
+        <v>781</v>
+      </c>
+      <c r="F540" s="65"/>
+      <c r="G540" s="63"/>
+      <c r="H540" s="63"/>
+      <c r="I540" s="65" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J540" s="66" t="s">
+        <v>1960</v>
+      </c>
+      <c r="K540" s="209"/>
+      <c r="L540" s="65" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M540" s="241">
         <v>46001.592951388891</v>
       </c>
-      <c r="B540" s="167" t="s">
-        <v>1958</v>
-      </c>
-      <c r="C540" s="36"/>
-      <c r="D540" s="36"/>
-      <c r="E540" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="F540" s="36"/>
-      <c r="G540" s="189" t="s">
-        <v>78</v>
-      </c>
-      <c r="H540" s="189" t="s">
-        <v>78</v>
-      </c>
-      <c r="I540" s="36" t="s">
-        <v>1723</v>
-      </c>
-      <c r="J540" s="43" t="s">
-        <v>1959</v>
-      </c>
-      <c r="K540" s="208"/>
-      <c r="L540" s="36" t="s">
-        <v>1375</v>
-      </c>
-      <c r="M540" s="239">
-        <v>46001.592951388891</v>
-      </c>
-      <c r="N540" s="42" t="s">
+      <c r="N540" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="O540" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="P540" s="36"/>
-      <c r="Q540" s="36"/>
-      <c r="R540" s="227" t="s">
-        <v>1960</v>
+      <c r="O540" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="P540" s="65"/>
+      <c r="Q540" s="65"/>
+      <c r="R540" s="230" t="s">
+        <v>1961</v>
       </c>
       <c r="S540" s="135"/>
       <c r="T540" s="44"/>
     </row>
-    <row r="541" spans="1:20" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A541" s="243">
         <v>46002</v>
       </c>
       <c r="B541" s="168" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="C541" s="65"/>
       <c r="D541" s="65"/>
@@ -44608,7 +45025,7 @@
         <v>1820</v>
       </c>
       <c r="J541" s="66" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="K541" s="209"/>
       <c r="L541" s="65" t="s">
@@ -44625,18 +45042,18 @@
       </c>
       <c r="P541" s="65"/>
       <c r="Q541" s="65"/>
-      <c r="R541" s="230" t="s">
-        <v>1963</v>
+      <c r="R541" s="188" t="s">
+        <v>1964</v>
       </c>
       <c r="S541" s="135"/>
       <c r="T541" s="44"/>
     </row>
-    <row r="542" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A542" s="243">
         <v>46002</v>
       </c>
       <c r="B542" s="168" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="C542" s="65"/>
       <c r="D542" s="65"/>
@@ -44650,7 +45067,7 @@
         <v>948</v>
       </c>
       <c r="J542" s="66" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="K542" s="209"/>
       <c r="L542" s="65" t="s">
@@ -44667,18 +45084,18 @@
       </c>
       <c r="P542" s="65"/>
       <c r="Q542" s="65"/>
-      <c r="R542" s="230" t="s">
-        <v>1966</v>
+      <c r="R542" s="188" t="s">
+        <v>1967</v>
       </c>
       <c r="S542" s="135"/>
       <c r="T542" s="44"/>
     </row>
-    <row r="543" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A543" s="243">
         <v>46002</v>
       </c>
       <c r="B543" s="167" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C543" s="36"/>
       <c r="D543" s="36"/>
@@ -44692,7 +45109,7 @@
         <v>426</v>
       </c>
       <c r="J543" s="43" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="K543" s="208"/>
       <c r="L543" s="36" t="s">
@@ -44709,106 +45126,106 @@
       </c>
       <c r="P543" s="36"/>
       <c r="Q543" s="36"/>
-      <c r="R543" s="227" t="s">
-        <v>1969</v>
+      <c r="R543" s="220" t="s">
+        <v>1970</v>
       </c>
       <c r="S543" s="135"/>
       <c r="T543" s="44"/>
     </row>
-    <row r="544" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A544" s="243">
+        <v>46003</v>
+      </c>
+      <c r="B544" s="168" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C544" s="65"/>
+      <c r="D544" s="65"/>
+      <c r="E544" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="F544" s="65"/>
+      <c r="G544" s="63"/>
+      <c r="H544" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="I544" s="65" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J544" s="66" t="s">
+        <v>1972</v>
+      </c>
+      <c r="K544" s="209"/>
+      <c r="L544" s="65" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M544" s="241">
         <v>46002</v>
       </c>
-      <c r="B544" s="167" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C544" s="36"/>
-      <c r="D544" s="36"/>
-      <c r="E544" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="F544" s="36"/>
-      <c r="G544" s="42"/>
-      <c r="H544" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I544" s="36" t="s">
-        <v>1373</v>
-      </c>
-      <c r="J544" s="43" t="s">
-        <v>1971</v>
-      </c>
-      <c r="K544" s="208"/>
-      <c r="L544" s="36" t="s">
-        <v>1375</v>
-      </c>
-      <c r="M544" s="239">
-        <v>46002</v>
-      </c>
-      <c r="N544" s="42" t="s">
+      <c r="N544" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="O544" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="P544" s="36"/>
-      <c r="Q544" s="36"/>
-      <c r="R544" s="227" t="s">
-        <v>1972</v>
+      <c r="O544" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="P544" s="65"/>
+      <c r="Q544" s="65"/>
+      <c r="R544" s="188" t="s">
+        <v>1973</v>
       </c>
       <c r="S544" s="135"/>
       <c r="T544" s="44"/>
     </row>
-    <row r="545" spans="1:20" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A545" s="243">
+        <v>46003</v>
+      </c>
+      <c r="B545" s="168" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C545" s="65"/>
+      <c r="D545" s="65"/>
+      <c r="E545" s="65" t="s">
+        <v>781</v>
+      </c>
+      <c r="F545" s="65"/>
+      <c r="G545" s="63"/>
+      <c r="H545" s="63"/>
+      <c r="I545" s="65" t="s">
+        <v>426</v>
+      </c>
+      <c r="J545" s="66" t="s">
+        <v>1975</v>
+      </c>
+      <c r="K545" s="209"/>
+      <c r="L545" s="65" t="s">
+        <v>715</v>
+      </c>
+      <c r="M545" s="241">
         <v>46002</v>
       </c>
-      <c r="B545" s="167" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C545" s="36"/>
-      <c r="D545" s="36"/>
-      <c r="E545" s="36" t="s">
-        <v>781</v>
-      </c>
-      <c r="F545" s="36"/>
-      <c r="G545" s="42"/>
-      <c r="H545" s="42"/>
-      <c r="I545" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="J545" s="43" t="s">
-        <v>1974</v>
-      </c>
-      <c r="K545" s="208"/>
-      <c r="L545" s="36" t="s">
-        <v>715</v>
-      </c>
-      <c r="M545" s="239">
-        <v>46002</v>
-      </c>
-      <c r="N545" s="42" t="s">
+      <c r="N545" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="O545" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="P545" s="36"/>
-      <c r="Q545" s="36"/>
-      <c r="R545" s="227" t="s">
-        <v>1975</v>
+      <c r="O545" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="P545" s="65"/>
+      <c r="Q545" s="65"/>
+      <c r="R545" s="188" t="s">
+        <v>1976</v>
       </c>
       <c r="S545" s="135"/>
       <c r="T545" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="546" spans="1:20" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A546" s="243">
         <v>46002</v>
       </c>
       <c r="B546" s="167" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C546" s="36"/>
       <c r="D546" s="36"/>
@@ -44826,7 +45243,7 @@
         <v>1373</v>
       </c>
       <c r="J546" s="43" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="K546" s="208"/>
       <c r="L546" s="36" t="s">
@@ -44843,18 +45260,18 @@
       </c>
       <c r="P546" s="36"/>
       <c r="Q546" s="36"/>
-      <c r="R546" s="227" t="s">
-        <v>1978</v>
+      <c r="R546" s="220" t="s">
+        <v>1979</v>
       </c>
       <c r="S546" s="135"/>
       <c r="T546" s="44"/>
     </row>
-    <row r="547" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A547" s="243">
         <v>46003</v>
       </c>
       <c r="B547" s="168" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C547" s="65"/>
       <c r="D547" s="65"/>
@@ -44868,11 +45285,11 @@
         <v>1723</v>
       </c>
       <c r="J547" s="66" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="K547" s="209"/>
       <c r="L547" s="65" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="M547" s="241">
         <v>46002.719513888886</v>
@@ -44885,18 +45302,18 @@
       </c>
       <c r="P547" s="65"/>
       <c r="Q547" s="65"/>
-      <c r="R547" s="230" t="s">
-        <v>1982</v>
+      <c r="R547" s="188" t="s">
+        <v>1983</v>
       </c>
       <c r="S547" s="135"/>
       <c r="T547" s="44"/>
     </row>
-    <row r="548" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:20" ht="25.5" hidden="1" customHeight="1">
       <c r="A548" s="243">
         <v>46003</v>
       </c>
       <c r="B548" s="168" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C548" s="65"/>
       <c r="D548" s="65"/>
@@ -44910,7 +45327,7 @@
         <v>641</v>
       </c>
       <c r="J548" s="66" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="K548" s="209"/>
       <c r="L548" s="65" t="s">
@@ -44927,20 +45344,20 @@
       </c>
       <c r="P548" s="65"/>
       <c r="Q548" s="65"/>
-      <c r="R548" s="230" t="s">
-        <v>1985</v>
+      <c r="R548" s="188" t="s">
+        <v>1986</v>
       </c>
       <c r="S548" s="135"/>
       <c r="T548" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="549" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:20" ht="25.5" customHeight="1">
       <c r="A549" s="243">
         <v>46006</v>
       </c>
       <c r="B549" s="168" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C549" s="65"/>
       <c r="D549" s="65"/>
@@ -44954,7 +45371,7 @@
         <v>1047</v>
       </c>
       <c r="J549" s="66" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="K549" s="209"/>
       <c r="L549" s="65" t="s">
@@ -44971,18 +45388,18 @@
       </c>
       <c r="P549" s="65"/>
       <c r="Q549" s="65"/>
-      <c r="R549" s="230" t="s">
-        <v>1988</v>
+      <c r="R549" s="188" t="s">
+        <v>1989</v>
       </c>
       <c r="S549" s="135"/>
       <c r="T549" s="44"/>
     </row>
-    <row r="550" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:20" ht="25.5" customHeight="1">
       <c r="A550" s="243">
         <v>46006</v>
       </c>
       <c r="B550" s="168" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C550" s="65"/>
       <c r="D550" s="65"/>
@@ -44996,7 +45413,7 @@
         <v>426</v>
       </c>
       <c r="J550" s="66" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="K550" s="209"/>
       <c r="L550" s="65" t="s">
@@ -45013,20 +45430,20 @@
       </c>
       <c r="P550" s="65"/>
       <c r="Q550" s="65"/>
-      <c r="R550" s="230" t="s">
-        <v>1991</v>
+      <c r="R550" s="188" t="s">
+        <v>1992</v>
       </c>
       <c r="S550" s="135"/>
       <c r="T550" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="551" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A551" s="243">
+    <row r="551" spans="1:20" ht="25.5" hidden="1" customHeight="1">
+      <c r="A551" s="263">
         <v>46005</v>
       </c>
-      <c r="B551" s="167" t="s">
-        <v>1992</v>
+      <c r="B551" s="173" t="s">
+        <v>1993</v>
       </c>
       <c r="C551" s="36"/>
       <c r="D551" s="36"/>
@@ -45044,13 +45461,13 @@
         <v>426</v>
       </c>
       <c r="J551" s="43" t="s">
-        <v>1993</v>
-      </c>
-      <c r="K551" s="208"/>
+        <v>1994</v>
+      </c>
+      <c r="K551" s="36"/>
       <c r="L551" s="36" t="s">
         <v>715</v>
       </c>
-      <c r="M551" s="239">
+      <c r="M551" s="265">
         <v>46005.76462962963</v>
       </c>
       <c r="N551" s="42" t="s">
@@ -45063,20 +45480,20 @@
         <v>825</v>
       </c>
       <c r="Q551" s="36"/>
-      <c r="R551" s="227" t="s">
-        <v>1994</v>
-      </c>
-      <c r="S551" s="135"/>
+      <c r="R551" s="184" t="s">
+        <v>1995</v>
+      </c>
+      <c r="S551" s="44"/>
       <c r="T551" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="552" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A552" s="243">
+    <row r="552" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A552" s="263">
         <v>46006</v>
       </c>
-      <c r="B552" s="168" t="s">
-        <v>1995</v>
+      <c r="B552" s="133" t="s">
+        <v>1996</v>
       </c>
       <c r="C552" s="65"/>
       <c r="D552" s="65"/>
@@ -45092,13 +45509,13 @@
         <v>426</v>
       </c>
       <c r="J552" s="66" t="s">
-        <v>1996</v>
-      </c>
-      <c r="K552" s="209"/>
+        <v>1997</v>
+      </c>
+      <c r="K552" s="65"/>
       <c r="L552" s="65" t="s">
         <v>513</v>
       </c>
-      <c r="M552" s="241">
+      <c r="M552" s="264">
         <v>46005.767430555556</v>
       </c>
       <c r="N552" s="63" t="s">
@@ -45109,20 +45526,20 @@
       </c>
       <c r="P552" s="65"/>
       <c r="Q552" s="65"/>
-      <c r="R552" s="230" t="s">
-        <v>1997</v>
-      </c>
-      <c r="S552" s="135"/>
+      <c r="R552" s="154" t="s">
+        <v>1998</v>
+      </c>
+      <c r="S552" s="44"/>
       <c r="T552" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="553" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A553" s="243">
+    <row r="553" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A553" s="263">
         <v>46006</v>
       </c>
-      <c r="B553" s="168" t="s">
-        <v>1998</v>
+      <c r="B553" s="133" t="s">
+        <v>1999</v>
       </c>
       <c r="C553" s="65"/>
       <c r="D553" s="65"/>
@@ -45136,13 +45553,13 @@
         <v>1440</v>
       </c>
       <c r="J553" s="66" t="s">
-        <v>1999</v>
-      </c>
-      <c r="K553" s="209"/>
+        <v>2000</v>
+      </c>
+      <c r="K553" s="65"/>
       <c r="L553" s="65" t="s">
         <v>1400</v>
       </c>
-      <c r="M553" s="241">
+      <c r="M553" s="264">
         <v>46006.189583333333</v>
       </c>
       <c r="N553" s="63" t="s">
@@ -45153,18 +45570,18 @@
       </c>
       <c r="P553" s="65"/>
       <c r="Q553" s="65"/>
-      <c r="R553" s="230" t="s">
-        <v>2000</v>
-      </c>
-      <c r="S553" s="135"/>
+      <c r="R553" s="154" t="s">
+        <v>2001</v>
+      </c>
+      <c r="S553" s="44"/>
       <c r="T553" s="44"/>
     </row>
-    <row r="554" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A554" s="243">
+    <row r="554" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A554" s="263">
         <v>46006</v>
       </c>
-      <c r="B554" s="167" t="s">
-        <v>2001</v>
+      <c r="B554" s="173" t="s">
+        <v>2002</v>
       </c>
       <c r="C554" s="36"/>
       <c r="D554" s="36"/>
@@ -45180,13 +45597,13 @@
         <v>1530</v>
       </c>
       <c r="J554" s="43" t="s">
-        <v>2002</v>
-      </c>
-      <c r="K554" s="208"/>
+        <v>2003</v>
+      </c>
+      <c r="K554" s="36"/>
       <c r="L554" s="36" t="s">
         <v>1287</v>
       </c>
-      <c r="M554" s="239">
+      <c r="M554" s="265">
         <v>46006.4690625</v>
       </c>
       <c r="N554" s="42" t="s">
@@ -45197,44 +45614,40 @@
       </c>
       <c r="P554" s="36"/>
       <c r="Q554" s="36"/>
-      <c r="R554" s="227" t="s">
-        <v>2003</v>
-      </c>
-      <c r="S554" s="135"/>
+      <c r="R554" s="184" t="s">
+        <v>2004</v>
+      </c>
+      <c r="S554" s="44"/>
       <c r="T554" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="555" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A555" s="243">
+    <row r="555" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A555" s="263">
         <v>46006</v>
       </c>
-      <c r="B555" s="167" t="s">
-        <v>2004</v>
+      <c r="B555" s="173" t="s">
+        <v>2005</v>
       </c>
       <c r="C555" s="36"/>
       <c r="D555" s="36"/>
-      <c r="E555" s="189" t="s">
-        <v>78</v>
+      <c r="E555" s="36" t="s">
+        <v>822</v>
       </c>
       <c r="F555" s="36"/>
-      <c r="G555" s="189" t="s">
-        <v>78</v>
-      </c>
-      <c r="H555" s="189" t="s">
-        <v>78</v>
-      </c>
+      <c r="G555" s="36"/>
+      <c r="H555" s="36"/>
       <c r="I555" s="36" t="s">
         <v>877</v>
       </c>
       <c r="J555" s="43" t="s">
-        <v>2005</v>
-      </c>
-      <c r="K555" s="208"/>
+        <v>2006</v>
+      </c>
+      <c r="K555" s="36"/>
       <c r="L555" s="36" t="s">
         <v>638</v>
       </c>
-      <c r="M555" s="239">
+      <c r="M555" s="265">
         <v>46006.585335648146</v>
       </c>
       <c r="N555" s="42" t="s">
@@ -45245,22 +45658,20 @@
       </c>
       <c r="P555" s="36"/>
       <c r="Q555" s="36"/>
-      <c r="R555" s="227" t="s">
-        <v>2006</v>
-      </c>
-      <c r="S555" s="135"/>
+      <c r="R555" s="184" t="s">
+        <v>2007</v>
+      </c>
+      <c r="S555" s="44"/>
       <c r="T555" s="44"/>
     </row>
-    <row r="556" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A556" s="243">
+    <row r="556" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A556" s="263">
         <v>46006</v>
       </c>
-      <c r="B556" s="167" t="s">
-        <v>2007</v>
-      </c>
-      <c r="C556" s="36">
-        <v>111</v>
-      </c>
+      <c r="B556" s="173" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C556" s="36"/>
       <c r="D556" s="36"/>
       <c r="E556" s="189" t="s">
         <v>78</v>
@@ -45276,13 +45687,13 @@
         <v>641</v>
       </c>
       <c r="J556" s="43" t="s">
-        <v>2008</v>
-      </c>
-      <c r="K556" s="208"/>
+        <v>2009</v>
+      </c>
+      <c r="K556" s="36"/>
       <c r="L556" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="M556" s="239">
+      <c r="M556" s="265">
         <v>46006.667222222219</v>
       </c>
       <c r="N556" s="42" t="s">
@@ -45293,24 +45704,391 @@
       </c>
       <c r="P556" s="36"/>
       <c r="Q556" s="36"/>
-      <c r="R556" s="227" t="s">
-        <v>2009</v>
-      </c>
-      <c r="S556" s="135"/>
+      <c r="R556" s="184" t="s">
+        <v>2010</v>
+      </c>
+      <c r="S556" s="44"/>
       <c r="T556" s="44" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="557" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A557" s="263">
+        <v>46007</v>
+      </c>
+      <c r="B557" s="133" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C557" s="65"/>
+      <c r="D557" s="65"/>
+      <c r="E557" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F557" s="65"/>
+      <c r="G557" s="65"/>
+      <c r="H557" s="65"/>
+      <c r="I557" s="65" t="s">
+        <v>426</v>
+      </c>
+      <c r="J557" s="66" t="s">
+        <v>2012</v>
+      </c>
+      <c r="K557" s="65"/>
+      <c r="L557" s="65" t="s">
+        <v>715</v>
+      </c>
+      <c r="M557" s="264">
+        <v>46006</v>
+      </c>
+      <c r="N557" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="O557" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="P557" s="65"/>
+      <c r="Q557" s="65"/>
+      <c r="R557" s="154" t="s">
+        <v>2013</v>
+      </c>
+      <c r="S557" s="44"/>
+      <c r="T557" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="558" spans="1:20" ht="51" customHeight="1">
+      <c r="A558" s="263">
+        <v>46006</v>
+      </c>
+      <c r="B558" s="173" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C558" s="36"/>
+      <c r="D558" s="36"/>
+      <c r="E558" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="F558" s="36"/>
+      <c r="G558" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="H558" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="I558" s="36" t="s">
+        <v>641</v>
+      </c>
+      <c r="J558" s="43" t="s">
+        <v>2015</v>
+      </c>
+      <c r="K558" s="36"/>
+      <c r="L558" s="36" t="s">
+        <v>715</v>
+      </c>
+      <c r="M558" s="265">
+        <v>46006</v>
+      </c>
+      <c r="N558" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="O558" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P558" s="36"/>
+      <c r="Q558" s="36"/>
+      <c r="R558" s="184" t="s">
+        <v>2016</v>
+      </c>
+      <c r="S558" s="44"/>
+      <c r="T558" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="559" spans="1:20" ht="45.6" customHeight="1">
+      <c r="A559" s="263">
+        <v>46006</v>
+      </c>
+      <c r="B559" s="173" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C559" s="36"/>
+      <c r="D559" s="36"/>
+      <c r="E559" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="F559" s="36"/>
+      <c r="G559" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="H559" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="I559" s="36" t="s">
+        <v>641</v>
+      </c>
+      <c r="J559" s="43" t="s">
+        <v>2018</v>
+      </c>
+      <c r="K559" s="36"/>
+      <c r="L559" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="M559" s="265">
+        <v>46006</v>
+      </c>
+      <c r="N559" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="O559" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P559" s="36"/>
+      <c r="Q559" s="36"/>
+      <c r="R559" s="184" t="s">
+        <v>2019</v>
+      </c>
+      <c r="S559" s="44"/>
+      <c r="T559" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="560" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A560" s="263">
+        <v>46007</v>
+      </c>
+      <c r="B560" s="173" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C560" s="36"/>
+      <c r="D560" s="36"/>
+      <c r="E560" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="F560" s="36"/>
+      <c r="G560" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="H560" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="I560" s="36" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J560" s="43" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K560" s="36"/>
+      <c r="L560" s="36" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M560" s="265">
+        <v>46007</v>
+      </c>
+      <c r="N560" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O560" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P560" s="36"/>
+      <c r="Q560" s="36"/>
+      <c r="R560" s="184" t="s">
+        <v>2022</v>
+      </c>
+      <c r="S560" s="44"/>
+      <c r="T560" s="44"/>
+    </row>
+    <row r="561" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A561" s="263">
+        <v>46007</v>
+      </c>
+      <c r="B561" s="173" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C561" s="36"/>
+      <c r="D561" s="36"/>
+      <c r="E561" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="F561" s="36"/>
+      <c r="G561" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="H561" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="I561" s="13" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J561" s="43" t="s">
+        <v>2024</v>
+      </c>
+      <c r="K561" s="36"/>
+      <c r="L561" s="36" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M561" s="265">
+        <v>46007</v>
+      </c>
+      <c r="N561" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O561" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P561" s="36"/>
+      <c r="Q561" s="36"/>
+      <c r="R561" s="184" t="s">
+        <v>2025</v>
+      </c>
+      <c r="S561" s="44"/>
+      <c r="T561" s="44"/>
+    </row>
+    <row r="562" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A562" s="263">
+        <v>46007</v>
+      </c>
+      <c r="B562" s="173" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C562" s="36"/>
+      <c r="D562" s="36"/>
+      <c r="E562" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="F562" s="36"/>
+      <c r="G562" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="H562" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="I562" s="36" t="s">
+        <v>2027</v>
+      </c>
+      <c r="J562" s="43" t="s">
+        <v>2028</v>
+      </c>
+      <c r="K562" s="36"/>
+      <c r="L562" s="36" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M562" s="265">
+        <v>46007</v>
+      </c>
+      <c r="N562" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O562" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P562" s="36"/>
+      <c r="Q562" s="36"/>
+      <c r="R562" s="184" t="s">
+        <v>2029</v>
+      </c>
+      <c r="S562" s="44"/>
+      <c r="T562" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="563" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A563" s="263">
+        <v>46007</v>
+      </c>
+      <c r="B563" s="173" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C563" s="36"/>
+      <c r="D563" s="36"/>
+      <c r="E563" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F563" s="36"/>
+      <c r="G563" s="36"/>
+      <c r="H563" s="36"/>
+      <c r="I563" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J563" s="43" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K563" s="36"/>
+      <c r="L563" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="M563" s="265">
+        <v>46007</v>
+      </c>
+      <c r="N563" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O563" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P563" s="36"/>
+      <c r="Q563" s="36"/>
+      <c r="R563" s="184" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S563" s="44"/>
+      <c r="T563" s="44"/>
+    </row>
+    <row r="564" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A564" s="263">
+        <v>46007</v>
+      </c>
+      <c r="B564" s="173" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C564" s="36"/>
+      <c r="D564" s="36"/>
+      <c r="E564" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="F564" s="36"/>
+      <c r="G564" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="H564" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="I564" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="J564" s="43" t="s">
+        <v>2034</v>
+      </c>
+      <c r="K564" s="36"/>
+      <c r="L564" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="M564" s="265">
+        <v>46007</v>
+      </c>
+      <c r="N564" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O564" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P564" s="36"/>
+      <c r="Q564" s="36"/>
+      <c r="R564" s="184" t="s">
+        <v>2035</v>
+      </c>
+      <c r="S564" s="44"/>
+      <c r="T564" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T546" xr:uid="{17BB5121-B8FF-4194-B253-4C4D7825D4AB}">
-    <filterColumn colId="14">
+  <autoFilter ref="A1:T564" xr:uid="{17BB5121-B8FF-4194-B253-4C4D7825D4AB}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="In Process"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="18">
-      <filters>
-        <filter val="X"/>
+        <dateGroupItem year="2025" month="12" day="15" dateTimeGrouping="day"/>
+        <dateGroupItem year="2025" month="12" day="16" dateTimeGrouping="day"/>
+        <dateGroupItem year="2025" month="12" day="17" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -45779,9 +46557,17 @@
     <hyperlink ref="B554" r:id="rId459" xr:uid="{2980A5D9-0396-4DDE-8709-336B6EBE4499}"/>
     <hyperlink ref="B555" r:id="rId460" xr:uid="{BA6BF876-F412-4723-83D4-8FF4FC4FB6D0}"/>
     <hyperlink ref="B556" r:id="rId461" xr:uid="{599DE794-5BD6-464B-A40F-0F9F7D0AB1E5}"/>
+    <hyperlink ref="B557" r:id="rId462" xr:uid="{C009F95B-0689-490C-B042-F24F1D3F9942}"/>
+    <hyperlink ref="B558" r:id="rId463" xr:uid="{44143541-F7EE-4BF0-BF73-9A2DF8BA4969}"/>
+    <hyperlink ref="B559" r:id="rId464" xr:uid="{509B4611-1FB3-4C0C-A837-4B7BEAAA05E5}"/>
+    <hyperlink ref="B560" r:id="rId465" xr:uid="{9F0FA6CA-DE49-4C98-8FD9-2248547E923D}"/>
+    <hyperlink ref="B561" r:id="rId466" xr:uid="{0195FB7D-B7EE-4B12-9E65-CC2916F6E71C}"/>
+    <hyperlink ref="B562" r:id="rId467" xr:uid="{DB5F731C-229B-42D5-A4F3-0586C6E2E877}"/>
+    <hyperlink ref="B563" r:id="rId468" xr:uid="{FB875C04-76AC-4F96-B87E-4C0C069F9432}"/>
+    <hyperlink ref="B564" r:id="rId469" xr:uid="{BC47F367-E798-4F58-B229-D3530D3C8600}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" r:id="rId462"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" r:id="rId470"/>
 </worksheet>
 </file>
 
@@ -45789,60 +46575,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FC0C89-A549-497C-986C-0019BDABA67A}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" style="139" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.7265625" style="139" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="139" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="139" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" style="204" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="139" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" style="139" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="90.7265625" style="139" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="139" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.7109375" style="139" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="139" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="139" customWidth="1"/>
+    <col min="5" max="5" width="27" style="204" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="139" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="139" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.7109375" style="139" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
       <c r="A1" s="205" t="s">
-        <v>2010</v>
+        <v>2036</v>
       </c>
       <c r="B1" s="205" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="205" t="s">
-        <v>2011</v>
+        <v>2037</v>
       </c>
       <c r="D1" s="205" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="206" t="s">
-        <v>2012</v>
+        <v>2038</v>
       </c>
       <c r="F1" s="205" t="s">
-        <v>2013</v>
+        <v>2039</v>
       </c>
       <c r="G1" s="205" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="205" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" hidden="1">
       <c r="A2" s="139" t="s">
-        <v>2015</v>
+        <v>2041</v>
       </c>
       <c r="B2" s="180" t="s">
-        <v>2016</v>
+        <v>2042</v>
       </c>
       <c r="C2" s="139" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="139" t="s">
-        <v>2017</v>
+        <v>2043</v>
       </c>
       <c r="E2" s="204">
         <v>45666</v>
@@ -45854,24 +46640,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.45" hidden="1">
       <c r="A3" s="139" t="s">
-        <v>2018</v>
+        <v>2044</v>
       </c>
       <c r="B3" s="179" t="s">
-        <v>2019</v>
+        <v>2045</v>
       </c>
       <c r="C3" s="139" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="139" t="s">
-        <v>2017</v>
+        <v>2043</v>
       </c>
       <c r="E3" s="204">
         <v>45785</v>
       </c>
       <c r="F3" s="139" t="s">
-        <v>2020</v>
+        <v>2046</v>
       </c>
       <c r="G3" s="139" t="s">
         <v>25</v>
@@ -45880,24 +46666,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="14.45" hidden="1">
       <c r="A4" s="139" t="s">
-        <v>2021</v>
+        <v>2047</v>
       </c>
       <c r="B4" s="179" t="s">
-        <v>2022</v>
+        <v>2048</v>
       </c>
       <c r="C4" s="139" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E4" s="204">
         <v>45831</v>
       </c>
       <c r="F4" s="139" t="s">
-        <v>2020</v>
+        <v>2046</v>
       </c>
       <c r="G4" s="139" t="s">
         <v>25</v>
@@ -45906,41 +46692,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.45">
       <c r="A5" s="139" t="s">
         <v>671</v>
       </c>
       <c r="B5" s="179" t="s">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="C5" s="139" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E5" s="204">
         <v>45847</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>2025</v>
+        <v>2051</v>
       </c>
       <c r="G5" s="139" t="s">
-        <v>2026</v>
+        <v>2052</v>
       </c>
       <c r="H5" s="190" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" hidden="1">
       <c r="A6" s="139" t="s">
-        <v>2028</v>
+        <v>2054</v>
       </c>
       <c r="B6" s="179" t="s">
-        <v>2029</v>
+        <v>2055</v>
       </c>
       <c r="D6" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E6" s="204">
         <v>45848</v>
@@ -45952,18 +46738,18 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.45" hidden="1">
       <c r="A7" s="139" t="s">
         <v>769</v>
       </c>
       <c r="B7" s="179" t="s">
-        <v>2030</v>
+        <v>2056</v>
       </c>
       <c r="C7" s="139" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E7" s="204">
         <v>45848</v>
@@ -45975,7 +46761,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="14.45" hidden="1">
       <c r="A8" s="139" t="s">
         <v>1264</v>
       </c>
@@ -45983,7 +46769,7 @@
         <v>1265</v>
       </c>
       <c r="D8" s="139" t="s">
-        <v>2017</v>
+        <v>2043</v>
       </c>
       <c r="E8" s="204">
         <v>45854</v>
@@ -45995,24 +46781,24 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.45" hidden="1">
       <c r="A9" s="139" t="s">
         <v>896</v>
       </c>
       <c r="B9" s="179" t="s">
-        <v>2031</v>
+        <v>2057</v>
       </c>
       <c r="C9" s="139" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E9" s="204">
         <v>45868</v>
       </c>
       <c r="F9" s="139" t="s">
-        <v>2020</v>
+        <v>2046</v>
       </c>
       <c r="G9" s="139" t="s">
         <v>25</v>
@@ -46021,41 +46807,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="14.45">
       <c r="A10" s="139" t="s">
         <v>1812</v>
       </c>
       <c r="B10" s="179" t="s">
-        <v>2032</v>
+        <v>2058</v>
       </c>
       <c r="C10" s="139" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E10" s="204">
         <v>45874</v>
       </c>
       <c r="F10" s="139" t="s">
-        <v>2033</v>
+        <v>2059</v>
       </c>
       <c r="G10" s="139" t="s">
-        <v>2026</v>
+        <v>2052</v>
       </c>
       <c r="H10" s="191" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.45" hidden="1">
       <c r="A11" s="139" t="s">
-        <v>2035</v>
+        <v>2061</v>
       </c>
       <c r="B11" s="179" t="s">
-        <v>2036</v>
+        <v>2062</v>
       </c>
       <c r="D11" s="139" t="s">
-        <v>2017</v>
+        <v>2043</v>
       </c>
       <c r="E11" s="204">
         <v>45889</v>
@@ -46067,90 +46853,90 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="14.45">
       <c r="A12" s="139" t="s">
-        <v>2037</v>
+        <v>2063</v>
       </c>
       <c r="B12" s="180" t="s">
-        <v>2038</v>
+        <v>2064</v>
       </c>
       <c r="D12" s="139" t="s">
-        <v>2017</v>
+        <v>2043</v>
       </c>
       <c r="E12" s="204">
         <v>45901</v>
       </c>
       <c r="F12" s="139" t="s">
-        <v>2033</v>
+        <v>2059</v>
       </c>
       <c r="G12" s="139" t="s">
-        <v>2039</v>
+        <v>2065</v>
       </c>
       <c r="H12" s="190" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.45">
       <c r="A13" s="139" t="s">
-        <v>2041</v>
+        <v>2067</v>
       </c>
       <c r="B13" s="179" t="s">
-        <v>2042</v>
+        <v>2068</v>
       </c>
       <c r="C13" s="139" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E13" s="204">
         <v>45902</v>
       </c>
       <c r="F13" s="139" t="s">
-        <v>2020</v>
+        <v>2046</v>
       </c>
       <c r="G13" s="139" t="s">
-        <v>2043</v>
+        <v>2069</v>
       </c>
       <c r="H13" s="190" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.45">
       <c r="A14" s="139" t="s">
-        <v>2045</v>
+        <v>2071</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>2046</v>
+        <v>2072</v>
       </c>
       <c r="D14" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E14" s="204">
         <v>45909</v>
       </c>
       <c r="F14" s="139" t="s">
-        <v>2020</v>
+        <v>2046</v>
       </c>
       <c r="G14" s="139" t="s">
-        <v>2043</v>
+        <v>2069</v>
       </c>
       <c r="H14" s="190" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.45" hidden="1">
       <c r="A15" s="139" t="s">
-        <v>2047</v>
+        <v>2073</v>
       </c>
       <c r="B15" s="179" t="s">
-        <v>2048</v>
+        <v>2074</v>
       </c>
       <c r="C15" s="139" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E15" s="204">
         <v>45923</v>
@@ -46159,27 +46945,27 @@
         <v>25</v>
       </c>
       <c r="H15" s="190" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="203" customFormat="1" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="203" customFormat="1" ht="14.45" hidden="1">
       <c r="A16" s="139" t="s">
-        <v>2050</v>
+        <v>2076</v>
       </c>
       <c r="B16" s="179" t="s">
-        <v>2051</v>
+        <v>2077</v>
       </c>
       <c r="C16" s="139" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E16" s="204">
         <v>45931</v>
       </c>
       <c r="F16" s="139" t="s">
-        <v>2052</v>
+        <v>2078</v>
       </c>
       <c r="G16" s="139" t="s">
         <v>25</v>
@@ -46188,90 +46974,90 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="14.45">
       <c r="A17" s="139" t="s">
-        <v>2053</v>
+        <v>2079</v>
       </c>
       <c r="B17" s="180" t="s">
-        <v>2054</v>
+        <v>2080</v>
       </c>
       <c r="D17" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E17" s="204">
         <v>45939</v>
       </c>
       <c r="F17" s="139" t="s">
-        <v>2033</v>
+        <v>2059</v>
       </c>
       <c r="G17" s="139" t="s">
-        <v>2026</v>
+        <v>2052</v>
       </c>
       <c r="H17" s="190" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.45">
       <c r="A18" s="139" t="s">
-        <v>2056</v>
+        <v>2082</v>
       </c>
       <c r="B18" s="179" t="s">
-        <v>2057</v>
+        <v>2083</v>
       </c>
       <c r="D18" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E18" s="204">
         <v>45967</v>
       </c>
       <c r="G18" s="139" t="s">
-        <v>2058</v>
+        <v>2084</v>
       </c>
       <c r="H18" s="190" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" s="139" t="s">
-        <v>2060</v>
+        <v>2086</v>
       </c>
       <c r="B19" s="179" t="s">
-        <v>2061</v>
+        <v>2087</v>
       </c>
       <c r="D19" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E19" s="204">
         <v>45973</v>
       </c>
       <c r="F19" s="139" t="s">
-        <v>2052</v>
+        <v>2078</v>
       </c>
       <c r="G19" s="139" t="s">
-        <v>2020</v>
+        <v>2046</v>
       </c>
       <c r="H19" s="190" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" s="139" t="s">
-        <v>2063</v>
+        <v>2089</v>
       </c>
       <c r="B20" s="179" t="s">
-        <v>2064</v>
+        <v>2090</v>
       </c>
       <c r="D20" s="139" t="s">
-        <v>2023</v>
+        <v>2049</v>
       </c>
       <c r="E20" s="204">
         <v>46002</v>
       </c>
       <c r="F20" s="139" t="s">
-        <v>2052</v>
+        <v>2078</v>
       </c>
       <c r="H20" s="190" t="s">
-        <v>2065</v>
+        <v>2091</v>
       </c>
     </row>
   </sheetData>
@@ -46292,21 +47078,21 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="78.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="78.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="43.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -46314,7 +47100,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2066</v>
+        <v>2092</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
@@ -46323,7 +47109,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2067</v>
+        <v>2093</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -46341,13 +47127,13 @@
         <v>15</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>2068</v>
+        <v>2094</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="72.599999999999994">
       <c r="A2" s="14"/>
       <c r="B2" s="15">
         <v>6000138582</v>
@@ -46357,7 +47143,7 @@
         <v>430</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>2070</v>
+        <v>2096</v>
       </c>
       <c r="F2" s="14">
         <v>1782457</v>
@@ -46367,7 +47153,7 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="156" t="s">
-        <v>2071</v>
+        <v>2097</v>
       </c>
       <c r="J2" s="156" t="s">
         <v>50</v>
@@ -46375,10 +47161,10 @@
       <c r="K2" s="17"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="29.1" hidden="1">
       <c r="A3" s="9"/>
       <c r="B3" s="18">
         <v>6000138844</v>
@@ -46388,7 +47174,7 @@
         <v>217</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>2073</v>
+        <v>2099</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9">
@@ -46396,18 +47182,18 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="157" t="s">
-        <v>2074</v>
+        <v>2100</v>
       </c>
       <c r="J3" s="157" t="s">
-        <v>2075</v>
+        <v>2101</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="43.5">
       <c r="A4" s="20"/>
       <c r="B4" s="20">
         <v>6000140063</v>
@@ -46425,7 +47211,7 @@
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="156" t="s">
-        <v>2074</v>
+        <v>2100</v>
       </c>
       <c r="J4" s="156" t="s">
         <v>50</v>
@@ -46433,10 +47219,10 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="13" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="87">
       <c r="A5" s="21"/>
       <c r="B5" s="22">
         <v>6000136848</v>
@@ -46446,7 +47232,7 @@
         <v>430</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>2078</v>
+        <v>2104</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21">
@@ -46454,7 +47240,7 @@
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="24" t="s">
-        <v>2071</v>
+        <v>2097</v>
       </c>
       <c r="J5" s="158" t="s">
         <v>50</v>
@@ -46462,20 +47248,20 @@
       <c r="K5" s="25"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="30" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="30" customFormat="1" ht="29.1" hidden="1">
       <c r="A6" s="26"/>
       <c r="B6" s="27">
         <v>6000140852</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26" t="s">
-        <v>2080</v>
+        <v>2106</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>2081</v>
+        <v>2107</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26">
@@ -46483,26 +47269,26 @@
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="29" t="s">
-        <v>2071</v>
+        <v>2097</v>
       </c>
       <c r="J6" s="159" t="s">
-        <v>2075</v>
+        <v>2101</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="30" customHeight="1">
       <c r="A7" s="31"/>
       <c r="B7" s="31">
         <v>6000141018</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31" t="s">
-        <v>2082</v>
+        <v>2108</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>2083</v>
+        <v>2109</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31">
@@ -46510,18 +47296,18 @@
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="32" t="s">
-        <v>2071</v>
+        <v>2097</v>
       </c>
       <c r="J7" s="158" t="s">
-        <v>2084</v>
+        <v>2110</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
       <c r="M7" s="34" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="29.1">
       <c r="A8" s="33"/>
       <c r="B8" s="33">
         <v>6000141265</v>
@@ -46531,7 +47317,7 @@
         <v>430</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>2086</v>
+        <v>2112</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33">
@@ -46539,7 +47325,7 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="160" t="s">
-        <v>2074</v>
+        <v>2100</v>
       </c>
       <c r="J8" s="160" t="s">
         <v>50</v>
@@ -46547,10 +47333,10 @@
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="3" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="43.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="43.9" customHeight="1">
       <c r="A9" s="33"/>
       <c r="B9" s="33">
         <v>6000141282</v>
@@ -46560,7 +47346,7 @@
         <v>430</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>2088</v>
+        <v>2114</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33">
@@ -46568,7 +47354,7 @@
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="160" t="s">
-        <v>2074</v>
+        <v>2100</v>
       </c>
       <c r="J9" s="160" t="s">
         <v>50</v>
@@ -46576,20 +47362,20 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="3" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="43.5">
       <c r="A10" s="33"/>
       <c r="B10" s="35">
         <v>6000141478</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
-        <v>2090</v>
+        <v>2116</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>2091</v>
+        <v>2117</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33">
@@ -46597,7 +47383,7 @@
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="11" t="s">
-        <v>2071</v>
+        <v>2097</v>
       </c>
       <c r="J10" s="160" t="s">
         <v>50</v>
@@ -46605,7 +47391,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="3" t="s">
-        <v>2092</v>
+        <v>2118</v>
       </c>
     </row>
   </sheetData>
@@ -46629,14 +47415,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="154.54296875" customWidth="1"/>
+    <col min="1" max="1" width="154.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="144.94999999999999">
       <c r="A1" s="1" t="s">
-        <v>2093</v>
+        <v>2119</v>
       </c>
     </row>
   </sheetData>
@@ -46645,21 +47431,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B1A195D4875AD44AB481EE147BB2EB1" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a35b21819631bdb9f9765db6ab2f642">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c661f53-2715-4175-9034-5fbd803942c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="006712feb74512d5afa920a48c7b348b" ns2:_="">
     <xsd:import namespace="3c661f53-2715-4175-9034-5fbd803942c2"/>
@@ -46797,39 +47568,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33F7F9A7-94D0-4193-89BD-CE0B62262A6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC5056D-3685-4B2C-A642-8F8EB1A112E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C50AAC8A-5E8D-4085-B03A-5A6A7E343F05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C50AAC8A-5E8D-4085-B03A-5A6A7E343F05}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC5056D-3685-4B2C-A642-8F8EB1A112E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3c661f53-2715-4175-9034-5fbd803942c2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33F7F9A7-94D0-4193-89BD-CE0B62262A6B}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
